--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_1_28.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_1_28.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1952333.394932338</v>
+        <v>2019532.172355447</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6420672.511903707</v>
+        <v>5301029.811029742</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2837136.506768291</v>
+        <v>2166967.111789206</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7197363.661028629</v>
+        <v>7411992.316518988</v>
       </c>
     </row>
     <row r="11">
@@ -659,7 +661,7 @@
         <v>6.11896786784456</v>
       </c>
       <c r="C2" t="n">
-        <v>406.0233447798626</v>
+        <v>6.023344779862555</v>
       </c>
       <c r="D2" t="n">
         <v>0.4192906078700389</v>
@@ -668,7 +670,7 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F2" t="n">
-        <v>416.8201079258493</v>
+        <v>16.8201079258493</v>
       </c>
       <c r="G2" t="n">
         <v>404.6410012660961</v>
@@ -707,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
-        <v>76.33211384749302</v>
+        <v>107.9912647143846</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -820,22 +822,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>94.35048654214715</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>165.4216953850578</v>
       </c>
     </row>
     <row r="5">
@@ -893,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6.11896786784456</v>
+        <v>387.9237459840447</v>
       </c>
       <c r="C5" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4192906078700389</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E5" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F5" t="n">
-        <v>193.5853516997776</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G5" t="n">
         <v>4.641001266096112</v>
@@ -944,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
         <v>169.3824387139007</v>
@@ -1060,19 +1062,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1111,16 +1113,16 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>271.1468876098733</v>
+        <v>204.3072349506393</v>
       </c>
       <c r="W7" t="n">
-        <v>101.4324503093902</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.11896786784456</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C8" t="n">
-        <v>6.023344779862555</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D8" t="n">
         <v>400.41929060787</v>
@@ -1142,7 +1144,7 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F8" t="n">
-        <v>271.4089641335524</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G8" t="n">
         <v>404.6410012660961</v>
@@ -1181,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>83.88836897833299</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="9">
@@ -1294,19 +1296,19 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
-        <v>148.1113806425979</v>
+        <v>54.68688746169116</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>191.6406548364337</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>235.9604235189134</v>
@@ -1367,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
-        <v>338.3529402125394</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
         <v>416.8201079258493</v>
@@ -1430,10 +1432,10 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
-        <v>379.9226978561831</v>
+        <v>334.0755358138493</v>
       </c>
       <c r="X11" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>396.9273063213908</v>
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,25 +1578,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S13" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>237.1532516330649</v>
+        <v>115.2839811962485</v>
       </c>
       <c r="U13" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>48.57570989689624</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1607,7 +1609,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D14" t="n">
         <v>400.41929060787</v>
@@ -1619,13 +1621,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,13 +1660,13 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T14" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V14" t="n">
-        <v>265.8857062461897</v>
+        <v>123.8394724344234</v>
       </c>
       <c r="W14" t="n">
         <v>379.9226978561831</v>
@@ -1768,22 +1770,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
-        <v>102.5987838459668</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1825,10 +1827,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>235.9604235189134</v>
+        <v>27.35334490128957</v>
       </c>
       <c r="Y16" t="n">
         <v>222.4883416251229</v>
@@ -1841,10 +1843,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>269.0118831534991</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D17" t="n">
         <v>400.41929060787</v>
@@ -1862,7 +1864,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1895,7 +1897,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U17" t="n">
         <v>254.489886823085</v>
@@ -1904,7 +1906,7 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W17" t="n">
-        <v>379.9226978561831</v>
+        <v>343.5575398289572</v>
       </c>
       <c r="X17" t="n">
         <v>396.636963852737</v>
@@ -2002,7 +2004,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2011,16 +2013,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.1113806425979</v>
+        <v>114.5012701123456</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2059,13 +2061,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
-        <v>233.857643763313</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>222.4883416251229</v>
@@ -2096,7 +2098,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I20" t="n">
         <v>85.48824505609757</v>
@@ -2129,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T20" t="n">
-        <v>219.2279701699385</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>254.489886823085</v>
+        <v>31.99018014062471</v>
       </c>
       <c r="V20" t="n">
         <v>346.3391791168841</v>
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>185.8227093301039</v>
+        <v>115.7710613231398</v>
       </c>
       <c r="C22" t="n">
         <v>169.3824387139007</v>
@@ -2254,10 +2256,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H22" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2299,10 +2301,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>27.35334490128957</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>222.4883416251229</v>
@@ -2330,13 +2332,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
-        <v>47.64512042712314</v>
+        <v>269.9562877695856</v>
       </c>
       <c r="H23" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2473,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
-        <v>155.8335957378387</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,22 +2526,22 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>27.35334490128957</v>
       </c>
       <c r="Y25" t="n">
         <v>222.4883416251229</v>
@@ -2555,7 +2557,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C26" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>400.41929060787</v>
@@ -2603,16 +2605,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U26" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V26" t="n">
-        <v>257.7677368882639</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W26" t="n">
         <v>379.9226978561831</v>
@@ -2621,7 +2623,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y26" t="n">
-        <v>396.9273063213908</v>
+        <v>360.4665252061825</v>
       </c>
     </row>
     <row r="27">
@@ -2804,13 +2806,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
-        <v>355.4445328256823</v>
+        <v>269.9562877695847</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2956,19 +2958,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3007,13 +3009,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>266.272328390067</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>27.35334490128957</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
         <v>222.4883416251229</v>
@@ -3041,7 +3043,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
-        <v>355.4445328256823</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3083,7 +3085,7 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U32" t="n">
-        <v>254.489886823085</v>
+        <v>205.293418382671</v>
       </c>
       <c r="V32" t="n">
         <v>346.3391791168841</v>
@@ -3184,19 +3186,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>128.7560630900389</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.577887163712</v>
@@ -3205,7 +3207,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I34" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3244,13 +3246,13 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>123.2603581888729</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
         <v>222.4883416251229</v>
@@ -3275,13 +3277,13 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
-        <v>416.8201079258493</v>
+        <v>282.1353944293379</v>
       </c>
       <c r="G35" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H35" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>85.48824505609757</v>
@@ -3314,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U35" t="n">
-        <v>165.9184445944652</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V35" t="n">
         <v>346.3391791168841</v>
@@ -3421,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>43.73227063629162</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>14.36834313438984</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,22 +3474,22 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>222.4883416251229</v>
@@ -3512,7 +3514,7 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G38" t="n">
         <v>404.6410012660961</v>
@@ -3521,7 +3523,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I38" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>254.489886823085</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V38" t="n">
         <v>346.3391791168841</v>
@@ -3566,7 +3568,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X38" t="n">
-        <v>370.9729458835154</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y38" t="n">
         <v>396.9273063213908</v>
@@ -3661,25 +3663,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
-        <v>84.89060298568053</v>
+        <v>142.4132299727021</v>
       </c>
       <c r="F40" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3712,19 +3714,19 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
         <v>222.4883416251229</v>
@@ -3752,10 +3754,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
         <v>85.48824505609757</v>
@@ -3791,16 +3793,16 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U41" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V41" t="n">
-        <v>128.2868000766792</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
-        <v>379.9226978561831</v>
+        <v>71.36683641495289</v>
       </c>
       <c r="X41" t="n">
         <v>396.636963852737</v>
@@ -3895,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
         <v>169.3824387139007</v>
@@ -3904,19 +3906,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I43" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S43" t="n">
-        <v>77.26426792452338</v>
+        <v>152.7629926123514</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3958,13 +3960,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="44">
@@ -3980,7 +3982,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>410.1968133282722</v>
@@ -3992,10 +3994,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H44" t="n">
-        <v>307.7994123985592</v>
+        <v>265.7345771113586</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,19 +4027,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
-        <v>135.7472161473894</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
         <v>396.636963852737</v>
@@ -4135,7 +4137,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>113.6106513650508</v>
       </c>
       <c r="D46" t="n">
         <v>157.8996982303191</v>
@@ -4186,13 +4188,13 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
-        <v>64.95210538029968</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4201,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
   </sheetData>
@@ -4304,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1782.763876502378</v>
+        <v>974.6830684215697</v>
       </c>
       <c r="C2" t="n">
-        <v>1372.639285815648</v>
+        <v>968.5988817752439</v>
       </c>
       <c r="D2" t="n">
-        <v>1372.215759949112</v>
+        <v>968.1753559087084</v>
       </c>
       <c r="E2" t="n">
-        <v>957.8755444660092</v>
+        <v>553.8351404256051</v>
       </c>
       <c r="F2" t="n">
         <v>536.8451324196967</v>
@@ -4328,52 +4330,52 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J2" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K2" t="n">
-        <v>812.7934917636817</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L2" t="n">
-        <v>1329.636426430007</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="M2" t="n">
-        <v>1846.479361096332</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="N2" t="n">
-        <v>2047.697635790537</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="O2" t="n">
-        <v>2047.697635790537</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="P2" t="n">
-        <v>2047.697635790537</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="Q2" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R2" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S2" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T2" t="n">
-        <v>1866.047797426961</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U2" t="n">
-        <v>1866.047797426961</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V2" t="n">
-        <v>1866.047797426961</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="W2" t="n">
-        <v>1866.047797426961</v>
+        <v>1089.945929615741</v>
       </c>
       <c r="X2" t="n">
-        <v>1788.944652126463</v>
+        <v>980.8638440456551</v>
       </c>
       <c r="Y2" t="n">
-        <v>1788.944652126463</v>
+        <v>980.8638440456551</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161367</v>
       </c>
       <c r="C3" t="n">
-        <v>586.6008562650824</v>
+        <v>586.6008562650825</v>
       </c>
       <c r="D3" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844749</v>
       </c>
       <c r="E3" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768029</v>
       </c>
       <c r="F3" t="n">
-        <v>240.2510026593072</v>
+        <v>240.2510026593075</v>
       </c>
       <c r="G3" t="n">
         <v>133.260889973646</v>
@@ -4404,22 +4406,22 @@
         <v>62.51367700936203</v>
       </c>
       <c r="I3" t="n">
-        <v>41.76508562960225</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J3" t="n">
-        <v>41.76508562960225</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K3" t="n">
-        <v>497.571341894901</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="L3" t="n">
-        <v>1014.414276561226</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="M3" t="n">
-        <v>1014.414276561226</v>
+        <v>704.7239474634683</v>
       </c>
       <c r="N3" t="n">
-        <v>1014.414276561226</v>
+        <v>704.7239474634683</v>
       </c>
       <c r="O3" t="n">
         <v>1221.566882129794</v>
@@ -4452,7 +4454,7 @@
         <v>1020.300919787893</v>
       </c>
       <c r="Y3" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517234</v>
       </c>
     </row>
     <row r="4">
@@ -4462,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>308.1619798276301</v>
+        <v>1131.098935930739</v>
       </c>
       <c r="C4" t="n">
-        <v>137.0686073893467</v>
+        <v>960.0055634924552</v>
       </c>
       <c r="D4" t="n">
-        <v>137.0686073893467</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="E4" t="n">
-        <v>137.0686073893467</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="F4" t="n">
-        <v>137.0686073893467</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G4" t="n">
-        <v>41.76508562960205</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="H4" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I4" t="n">
         <v>41.76508562960205</v>
@@ -4510,28 +4512,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R4" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S4" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="T4" t="n">
-        <v>1331.615243227154</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="U4" t="n">
-        <v>1048.817095773278</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="V4" t="n">
-        <v>774.9313507128002</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="W4" t="n">
-        <v>495.8616862216745</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="X4" t="n">
-        <v>495.8616862216745</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="Y4" t="n">
-        <v>495.8616862216745</v>
+        <v>1318.798642324783</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1066.882057025439</v>
+        <v>1696.412113819451</v>
       </c>
       <c r="C5" t="n">
-        <v>656.7574663387092</v>
+        <v>1286.287523132721</v>
       </c>
       <c r="D5" t="n">
-        <v>656.3339404721737</v>
+        <v>881.8235932257816</v>
       </c>
       <c r="E5" t="n">
-        <v>241.9937249890704</v>
+        <v>467.4833777426783</v>
       </c>
       <c r="F5" t="n">
         <v>46.45296569636579</v>
@@ -4565,25 +4567,25 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J5" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K5" t="n">
-        <v>295.9505570973564</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="L5" t="n">
-        <v>295.9505570973564</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="M5" t="n">
-        <v>295.9505570973564</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="N5" t="n">
-        <v>733.4074053521598</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="O5" t="n">
-        <v>1250.250340018485</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P5" t="n">
-        <v>1767.09327468481</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q5" t="n">
         <v>2088.254281480102</v>
@@ -4592,25 +4594,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S5" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T5" t="n">
-        <v>1730.766722221062</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U5" t="n">
-        <v>1473.706230480572</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V5" t="n">
-        <v>1473.706230480572</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W5" t="n">
-        <v>1473.706230480572</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X5" t="n">
-        <v>1073.062832649525</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Y5" t="n">
-        <v>1073.062832649525</v>
+        <v>2088.254281480102</v>
       </c>
     </row>
     <row r="6">
@@ -4644,28 +4646,28 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J6" t="n">
-        <v>234.5779431922353</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K6" t="n">
-        <v>690.384199457534</v>
+        <v>497.5713418949007</v>
       </c>
       <c r="L6" t="n">
-        <v>690.384199457534</v>
+        <v>1014.414276561226</v>
       </c>
       <c r="M6" t="n">
-        <v>1054.568412147451</v>
+        <v>1014.414276561226</v>
       </c>
       <c r="N6" t="n">
-        <v>1571.411346813777</v>
+        <v>1014.414276561226</v>
       </c>
       <c r="O6" t="n">
-        <v>2088.254281480102</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="P6" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="Q6" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R6" t="n">
         <v>2088.254281480102</v>
@@ -4699,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>362.4659132624289</v>
+        <v>654.7464449846486</v>
       </c>
       <c r="C7" t="n">
-        <v>191.3725408241454</v>
+        <v>483.6530725463652</v>
       </c>
       <c r="D7" t="n">
-        <v>191.3725408241454</v>
+        <v>483.6530725463652</v>
       </c>
       <c r="E7" t="n">
-        <v>191.3725408241454</v>
+        <v>322.7422574146847</v>
       </c>
       <c r="F7" t="n">
-        <v>191.3725408241454</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="G7" t="n">
-        <v>191.3725408241454</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="H7" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I7" t="n">
         <v>41.76508562960205</v>
@@ -4747,28 +4749,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R7" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S7" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T7" t="n">
-        <v>1246.342524902554</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U7" t="n">
-        <v>963.5443774486778</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V7" t="n">
-        <v>689.6586323881997</v>
+        <v>842.446151378693</v>
       </c>
       <c r="W7" t="n">
-        <v>587.2016118736642</v>
+        <v>842.446151378693</v>
       </c>
       <c r="X7" t="n">
-        <v>587.2016118736642</v>
+        <v>842.446151378693</v>
       </c>
       <c r="Y7" t="n">
-        <v>362.4659132624289</v>
+        <v>842.446151378693</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1946.792430650117</v>
+        <v>2541.96541775283</v>
       </c>
       <c r="C8" t="n">
-        <v>1940.708244003792</v>
+        <v>2131.840827066101</v>
       </c>
       <c r="D8" t="n">
-        <v>1536.244314096852</v>
+        <v>1727.376897159161</v>
       </c>
       <c r="E8" t="n">
-        <v>1121.904098613749</v>
+        <v>1313.036681676058</v>
       </c>
       <c r="F8" t="n">
-        <v>847.7536297919787</v>
+        <v>892.0062696297454</v>
       </c>
       <c r="G8" t="n">
-        <v>439.0253456848109</v>
+        <v>483.2779855225775</v>
       </c>
       <c r="H8" t="n">
-        <v>128.1168483125289</v>
+        <v>172.3694881502955</v>
       </c>
       <c r="I8" t="n">
-        <v>41.76508562960205</v>
+        <v>86.01772546736866</v>
       </c>
       <c r="J8" t="n">
-        <v>41.76508562960205</v>
+        <v>340.2031969351229</v>
       </c>
       <c r="K8" t="n">
-        <v>41.76508562960205</v>
+        <v>524.2900591047094</v>
       </c>
       <c r="L8" t="n">
-        <v>558.6080202959273</v>
+        <v>1236.881458916947</v>
       </c>
       <c r="M8" t="n">
-        <v>558.6080202959273</v>
+        <v>2013.200049908701</v>
       </c>
       <c r="N8" t="n">
-        <v>1054.568412147452</v>
+        <v>2766.381066547319</v>
       </c>
       <c r="O8" t="n">
-        <v>1571.411346813777</v>
+        <v>3410.011922964424</v>
       </c>
       <c r="P8" t="n">
-        <v>2088.254281480102</v>
+        <v>3939.168620883576</v>
       </c>
       <c r="Q8" t="n">
-        <v>2088.254281480102</v>
+        <v>4260.329627678868</v>
       </c>
       <c r="R8" t="n">
-        <v>2088.254281480102</v>
+        <v>4300.886273368433</v>
       </c>
       <c r="S8" t="n">
-        <v>1952.973206274203</v>
+        <v>4300.886273368433</v>
       </c>
       <c r="T8" t="n">
-        <v>1952.973206274203</v>
+        <v>4078.679789315292</v>
       </c>
       <c r="U8" t="n">
-        <v>1952.973206274203</v>
+        <v>3821.619297574802</v>
       </c>
       <c r="V8" t="n">
-        <v>1952.973206274203</v>
+        <v>3821.619297574802</v>
       </c>
       <c r="W8" t="n">
-        <v>1952.973206274203</v>
+        <v>3437.85899670997</v>
       </c>
       <c r="X8" t="n">
-        <v>1952.973206274203</v>
+        <v>3353.12327046923</v>
       </c>
       <c r="Y8" t="n">
-        <v>1952.973206274203</v>
+        <v>2952.18659741732</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>720.5959275161365</v>
+        <v>764.848567353903</v>
       </c>
       <c r="C9" t="n">
-        <v>586.6008562650821</v>
+        <v>630.8534961028488</v>
       </c>
       <c r="D9" t="n">
-        <v>469.7036984844746</v>
+        <v>513.9563383222412</v>
       </c>
       <c r="E9" t="n">
-        <v>349.2108824768026</v>
+        <v>393.4635223145692</v>
       </c>
       <c r="F9" t="n">
-        <v>240.2510026593071</v>
+        <v>284.5036424970738</v>
       </c>
       <c r="G9" t="n">
-        <v>133.2608899736458</v>
+        <v>177.5135298114124</v>
       </c>
       <c r="H9" t="n">
-        <v>62.51367700936187</v>
+        <v>106.7663168471285</v>
       </c>
       <c r="I9" t="n">
-        <v>41.76508562960205</v>
+        <v>86.01772546736866</v>
       </c>
       <c r="J9" t="n">
-        <v>41.76508562960205</v>
+        <v>86.01772546736866</v>
       </c>
       <c r="K9" t="n">
-        <v>41.76508562960205</v>
+        <v>541.8239817326673</v>
       </c>
       <c r="L9" t="n">
-        <v>558.6080202959273</v>
+        <v>697.1429367177207</v>
       </c>
       <c r="M9" t="n">
-        <v>1075.450954962253</v>
+        <v>697.1429367177207</v>
       </c>
       <c r="N9" t="n">
-        <v>1571.411346813777</v>
+        <v>1570.801028829339</v>
       </c>
       <c r="O9" t="n">
-        <v>2088.254281480102</v>
+        <v>1570.801028829339</v>
       </c>
       <c r="P9" t="n">
-        <v>2088.254281480102</v>
+        <v>2132.506921317869</v>
       </c>
       <c r="Q9" t="n">
-        <v>2088.254281480102</v>
+        <v>2132.506921317869</v>
       </c>
       <c r="R9" t="n">
-        <v>2088.254281480102</v>
+        <v>2132.506921317869</v>
       </c>
       <c r="S9" t="n">
-        <v>1980.264271594411</v>
+        <v>2024.516911432177</v>
       </c>
       <c r="T9" t="n">
-        <v>1820.922407781419</v>
+        <v>1865.175047619186</v>
       </c>
       <c r="U9" t="n">
-        <v>1623.571596919638</v>
+        <v>1667.824236757404</v>
       </c>
       <c r="V9" t="n">
-        <v>1409.860069912671</v>
+        <v>1454.112709750438</v>
       </c>
       <c r="W9" t="n">
-        <v>1196.626901649</v>
+        <v>1240.879541486767</v>
       </c>
       <c r="X9" t="n">
-        <v>1020.300919787893</v>
+        <v>1064.55355962566</v>
       </c>
       <c r="Y9" t="n">
-        <v>860.8989601517231</v>
+        <v>905.1515999894897</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>362.4659132624289</v>
+        <v>964.6373549426226</v>
       </c>
       <c r="C10" t="n">
-        <v>191.3725408241454</v>
+        <v>793.5439825043391</v>
       </c>
       <c r="D10" t="n">
-        <v>191.3725408241454</v>
+        <v>634.049337827249</v>
       </c>
       <c r="E10" t="n">
-        <v>191.3725408241454</v>
+        <v>473.1385226955685</v>
       </c>
       <c r="F10" t="n">
-        <v>191.3725408241454</v>
+        <v>308.5073968061598</v>
       </c>
       <c r="G10" t="n">
-        <v>191.3725408241454</v>
+        <v>141.2570057317032</v>
       </c>
       <c r="H10" t="n">
-        <v>41.76508562960205</v>
+        <v>86.01772546736866</v>
       </c>
       <c r="I10" t="n">
-        <v>41.76508562960205</v>
+        <v>86.01772546736866</v>
       </c>
       <c r="J10" t="n">
-        <v>55.84763503481257</v>
+        <v>100.1002748725792</v>
       </c>
       <c r="K10" t="n">
-        <v>210.3999627570506</v>
+        <v>254.6526025948172</v>
       </c>
       <c r="L10" t="n">
-        <v>470.2970630371111</v>
+        <v>514.5497028748778</v>
       </c>
       <c r="M10" t="n">
-        <v>759.5611194776044</v>
+        <v>803.813759315371</v>
       </c>
       <c r="N10" t="n">
-        <v>1040.399901871855</v>
+        <v>1084.652541709621</v>
       </c>
       <c r="O10" t="n">
-        <v>1299.960512198329</v>
+        <v>1344.213152036095</v>
       </c>
       <c r="P10" t="n">
-        <v>1505.635952447941</v>
+        <v>1549.888592285708</v>
       </c>
       <c r="Q10" t="n">
-        <v>1571.163982250452</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="R10" t="n">
-        <v>1485.891263925851</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="S10" t="n">
-        <v>1485.891263925851</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="T10" t="n">
-        <v>1485.891263925851</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="U10" t="n">
-        <v>1292.314844899151</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="V10" t="n">
-        <v>1292.314844899151</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="W10" t="n">
-        <v>1013.245180408025</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="X10" t="n">
-        <v>774.9013182677086</v>
+        <v>1377.072759947902</v>
       </c>
       <c r="Y10" t="n">
-        <v>550.1656196564733</v>
+        <v>1152.337061336667</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1644.677675955345</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C11" t="n">
-        <v>1644.677675955345</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D11" t="n">
-        <v>1644.677675955345</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E11" t="n">
-        <v>1302.907029276013</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F11" t="n">
-        <v>881.8766172297003</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G11" t="n">
-        <v>473.1483331225325</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H11" t="n">
-        <v>162.2398357502505</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I11" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J11" t="n">
-        <v>75.88807306732367</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K11" t="n">
-        <v>614.0475741763632</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L11" t="n">
-        <v>1326.638973988601</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M11" t="n">
-        <v>2102.957564980355</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N11" t="n">
-        <v>2856.138581618973</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O11" t="n">
-        <v>3499.769438036078</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P11" t="n">
-        <v>3794.403653366184</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q11" t="n">
-        <v>3794.403653366184</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R11" t="n">
-        <v>3794.403653366184</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S11" t="n">
-        <v>3659.122578160285</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T11" t="n">
-        <v>3436.916094107144</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U11" t="n">
-        <v>3179.855602366654</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V11" t="n">
-        <v>2830.018047703134</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W11" t="n">
-        <v>2446.257746838303</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="X11" t="n">
-        <v>2045.614349007255</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y11" t="n">
-        <v>1644.677675955345</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>754.7189149538581</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C12" t="n">
-        <v>620.7238437028037</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D12" t="n">
-        <v>503.8266859221961</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E12" t="n">
-        <v>383.3338699145241</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F12" t="n">
-        <v>274.3739900970288</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G12" t="n">
-        <v>167.3838774113675</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H12" t="n">
-        <v>96.6366644470835</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I12" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J12" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K12" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L12" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M12" t="n">
-        <v>918.8651537618904</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N12" t="n">
-        <v>1560.671376429294</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="O12" t="n">
-        <v>1560.671376429294</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P12" t="n">
-        <v>2122.377268917824</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q12" t="n">
-        <v>2122.377268917824</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R12" t="n">
-        <v>2122.377268917824</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S12" t="n">
-        <v>2014.387259032133</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T12" t="n">
-        <v>1855.045395219141</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U12" t="n">
-        <v>1657.694584357359</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V12" t="n">
-        <v>1443.983057350393</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W12" t="n">
-        <v>1230.749889086722</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X12" t="n">
-        <v>1054.423907225615</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y12" t="n">
-        <v>895.0219475894447</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>75.88807306732367</v>
+        <v>1182.57754799176</v>
       </c>
       <c r="C13" t="n">
-        <v>75.88807306732367</v>
+        <v>1011.484175553476</v>
       </c>
       <c r="D13" t="n">
-        <v>75.88807306732367</v>
+        <v>851.989530876386</v>
       </c>
       <c r="E13" t="n">
-        <v>75.88807306732367</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="F13" t="n">
-        <v>75.88807306732367</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G13" t="n">
-        <v>75.88807306732367</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H13" t="n">
-        <v>75.88807306732367</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I13" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J13" t="n">
-        <v>89.97062247253419</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K13" t="n">
-        <v>244.5229501947722</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L13" t="n">
-        <v>504.4200504748327</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M13" t="n">
-        <v>793.684106915326</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N13" t="n">
-        <v>1074.522889309576</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O13" t="n">
-        <v>1334.08349963605</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P13" t="n">
-        <v>1539.758939885663</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q13" t="n">
-        <v>1605.286969688174</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R13" t="n">
-        <v>1520.014251363573</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S13" t="n">
-        <v>1333.622483243484</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="T13" t="n">
-        <v>1094.073744220186</v>
+        <v>1420.921410132076</v>
       </c>
       <c r="U13" t="n">
-        <v>811.2755967663099</v>
+        <v>1420.921410132076</v>
       </c>
       <c r="V13" t="n">
-        <v>537.3898517058319</v>
+        <v>1420.921410132076</v>
       </c>
       <c r="W13" t="n">
-        <v>537.3898517058319</v>
+        <v>1420.921410132076</v>
       </c>
       <c r="X13" t="n">
-        <v>488.3234780726034</v>
+        <v>1182.57754799176</v>
       </c>
       <c r="Y13" t="n">
-        <v>263.5877794613681</v>
+        <v>1182.57754799176</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1315.722630503679</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C14" t="n">
-        <v>1315.722630503679</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D14" t="n">
-        <v>911.2587005967393</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E14" t="n">
-        <v>496.9184851136361</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F14" t="n">
-        <v>75.88807306732367</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G14" t="n">
-        <v>75.88807306732367</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H14" t="n">
-        <v>75.88807306732367</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I14" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J14" t="n">
-        <v>75.88807306732367</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K14" t="n">
-        <v>614.0475741763632</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L14" t="n">
-        <v>1326.638973988601</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M14" t="n">
-        <v>2102.957564980355</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N14" t="n">
-        <v>2856.138581618973</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O14" t="n">
-        <v>3499.769438036078</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P14" t="n">
-        <v>3794.403653366184</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q14" t="n">
-        <v>3794.403653366184</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R14" t="n">
-        <v>3794.403653366184</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S14" t="n">
-        <v>3659.122578160285</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T14" t="n">
-        <v>3436.916094107144</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="U14" t="n">
-        <v>3179.855602366654</v>
+        <v>4269.84331758475</v>
       </c>
       <c r="V14" t="n">
-        <v>2911.284181915957</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W14" t="n">
-        <v>2527.523881051125</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X14" t="n">
-        <v>2126.880483220078</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y14" t="n">
-        <v>1725.943810168168</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>754.7189149538581</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C15" t="n">
-        <v>620.7238437028037</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D15" t="n">
-        <v>503.8266859221961</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E15" t="n">
-        <v>383.3338699145241</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F15" t="n">
-        <v>274.3739900970288</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G15" t="n">
-        <v>167.3838774113675</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H15" t="n">
-        <v>96.6366644470835</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I15" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J15" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K15" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L15" t="n">
-        <v>736.976244986612</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M15" t="n">
-        <v>736.976244986612</v>
+        <v>754.331869609911</v>
       </c>
       <c r="N15" t="n">
-        <v>856.7142858833993</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O15" t="n">
-        <v>1560.671376429294</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P15" t="n">
-        <v>2122.377268917824</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q15" t="n">
-        <v>2122.377268917824</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R15" t="n">
-        <v>2122.377268917824</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S15" t="n">
-        <v>2014.387259032133</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T15" t="n">
-        <v>1855.045395219141</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U15" t="n">
-        <v>1657.694584357359</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V15" t="n">
-        <v>1443.983057350393</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W15" t="n">
-        <v>1230.749889086722</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X15" t="n">
-        <v>1054.423907225615</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y15" t="n">
-        <v>895.0219475894447</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>350.6165807035535</v>
+        <v>1182.57754799176</v>
       </c>
       <c r="C16" t="n">
-        <v>179.52320826527</v>
+        <v>1011.484175553476</v>
       </c>
       <c r="D16" t="n">
-        <v>75.88807306732367</v>
+        <v>851.989530876386</v>
       </c>
       <c r="E16" t="n">
-        <v>75.88807306732367</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="F16" t="n">
-        <v>75.88807306732367</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G16" t="n">
-        <v>75.88807306732367</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H16" t="n">
-        <v>75.88807306732367</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I16" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J16" t="n">
-        <v>89.97062247253419</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K16" t="n">
-        <v>244.5229501947722</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L16" t="n">
-        <v>504.4200504748327</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M16" t="n">
-        <v>793.684106915326</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N16" t="n">
-        <v>1074.522889309576</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O16" t="n">
-        <v>1334.08349963605</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P16" t="n">
-        <v>1539.758939885663</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q16" t="n">
-        <v>1605.286969688174</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R16" t="n">
-        <v>1520.014251363573</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S16" t="n">
-        <v>1520.014251363573</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T16" t="n">
-        <v>1280.465512340275</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U16" t="n">
-        <v>1280.465512340275</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="V16" t="n">
-        <v>1280.465512340275</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="W16" t="n">
-        <v>1001.39584784915</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="X16" t="n">
-        <v>763.0519857088332</v>
+        <v>1595.012952997039</v>
       </c>
       <c r="Y16" t="n">
-        <v>538.3162870975979</v>
+        <v>1370.277254385804</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2324.444211508952</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C17" t="n">
-        <v>2052.715036606428</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D17" t="n">
-        <v>1648.251106699488</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E17" t="n">
-        <v>1233.910891216385</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F17" t="n">
-        <v>812.8804791700727</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G17" t="n">
-        <v>404.1521950629048</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H17" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I17" t="n">
         <v>93.2436976906228</v>
@@ -5516,7 +5518,7 @@
         <v>347.4291691583771</v>
       </c>
       <c r="K17" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L17" t="n">
         <v>1598.180070079655</v>
@@ -5528,7 +5530,7 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O17" t="n">
-        <v>3771.310534127132</v>
+        <v>3771.310534127131</v>
       </c>
       <c r="P17" t="n">
         <v>4300.467232046283</v>
@@ -5543,22 +5545,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T17" t="n">
-        <v>4526.90380932524</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U17" t="n">
-        <v>4269.84331758475</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V17" t="n">
-        <v>3920.005762921231</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W17" t="n">
-        <v>3536.245462056399</v>
+        <v>3350.771460859042</v>
       </c>
       <c r="X17" t="n">
-        <v>3135.602064225352</v>
+        <v>2950.128063027995</v>
       </c>
       <c r="Y17" t="n">
-        <v>2734.665391173442</v>
+        <v>2549.191389976085</v>
       </c>
     </row>
     <row r="18">
@@ -5598,13 +5600,13 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L18" t="n">
-        <v>423.0977207349383</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M18" t="n">
-        <v>1266.074801429505</v>
+        <v>562.1177108836107</v>
       </c>
       <c r="N18" t="n">
-        <v>2139.732893541123</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O18" t="n">
         <v>2139.732893541123</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>735.6434849807119</v>
+        <v>657.2517797545896</v>
       </c>
       <c r="C19" t="n">
-        <v>735.6434849807119</v>
+        <v>486.1584073163061</v>
       </c>
       <c r="D19" t="n">
-        <v>735.6434849807119</v>
+        <v>486.1584073163061</v>
       </c>
       <c r="E19" t="n">
-        <v>574.7326698490315</v>
+        <v>325.2475921846256</v>
       </c>
       <c r="F19" t="n">
-        <v>410.1015439596227</v>
+        <v>325.2475921846256</v>
       </c>
       <c r="G19" t="n">
-        <v>242.8511528851661</v>
+        <v>325.2475921846256</v>
       </c>
       <c r="H19" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I19" t="n">
         <v>93.2436976906228</v>
@@ -5707,16 +5709,16 @@
         <v>1622.642594311473</v>
       </c>
       <c r="V19" t="n">
-        <v>1622.642594311473</v>
+        <v>1348.756849250995</v>
       </c>
       <c r="W19" t="n">
-        <v>1386.422752126308</v>
+        <v>1069.687184759869</v>
       </c>
       <c r="X19" t="n">
-        <v>1148.078889985992</v>
+        <v>1069.687184759869</v>
       </c>
       <c r="Y19" t="n">
-        <v>923.3431913747563</v>
+        <v>844.951486148634</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2238.282892603803</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C20" t="n">
-        <v>1828.158301917073</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D20" t="n">
-        <v>1423.694372010133</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E20" t="n">
-        <v>1009.35415652703</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F20" t="n">
-        <v>588.3237444807176</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G20" t="n">
-        <v>179.5954603735497</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H20" t="n">
         <v>179.5954603735497</v>
@@ -5777,25 +5779,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S20" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T20" t="n">
-        <v>4440.742490420091</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="U20" t="n">
-        <v>4183.681998679601</v>
+        <v>4494.590496051882</v>
       </c>
       <c r="V20" t="n">
-        <v>3833.844444016082</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W20" t="n">
-        <v>3450.08414315125</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X20" t="n">
-        <v>3049.440745320202</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y20" t="n">
-        <v>2648.504072268292</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="21">
@@ -5835,13 +5837,13 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L21" t="n">
-        <v>754.331869609911</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M21" t="n">
-        <v>1597.308950304478</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N21" t="n">
-        <v>1597.308950304478</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="O21" t="n">
         <v>2139.732893541123</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1182.57754799176</v>
+        <v>916.6240469015422</v>
       </c>
       <c r="C22" t="n">
-        <v>1011.484175553476</v>
+        <v>745.5306744632587</v>
       </c>
       <c r="D22" t="n">
-        <v>851.989530876386</v>
+        <v>586.0360297861687</v>
       </c>
       <c r="E22" t="n">
-        <v>691.0787157447054</v>
+        <v>425.1252146544881</v>
       </c>
       <c r="F22" t="n">
-        <v>526.4475898552967</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="G22" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H22" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I22" t="n">
         <v>93.2436976906228</v>
@@ -5932,28 +5934,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R22" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S22" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="T22" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="U22" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="V22" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="W22" t="n">
-        <v>1622.642594311473</v>
+        <v>1258.300211495747</v>
       </c>
       <c r="X22" t="n">
-        <v>1595.012952997039</v>
+        <v>1258.300211495747</v>
       </c>
       <c r="Y22" t="n">
-        <v>1370.277254385804</v>
+        <v>1033.564512884512</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2102.237727455811</v>
+        <v>2102.237727455812</v>
       </c>
       <c r="C23" t="n">
-        <v>1692.113136769081</v>
+        <v>1692.113136769082</v>
       </c>
       <c r="D23" t="n">
-        <v>1287.649206862142</v>
+        <v>1287.649206862143</v>
       </c>
       <c r="E23" t="n">
-        <v>873.3089913790386</v>
+        <v>873.3089913790395</v>
       </c>
       <c r="F23" t="n">
-        <v>452.2785793327262</v>
+        <v>452.2785793327271</v>
       </c>
       <c r="G23" t="n">
-        <v>404.1521950629048</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="H23" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I23" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="J23" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583776</v>
       </c>
       <c r="K23" t="n">
-        <v>885.5886702674165</v>
+        <v>885.588670267417</v>
       </c>
       <c r="L23" t="n">
         <v>1598.180070079655</v>
@@ -6008,31 +6010,31 @@
         <v>4300.467232046283</v>
       </c>
       <c r="Q23" t="n">
-        <v>4621.628238841575</v>
+        <v>4621.628238841576</v>
       </c>
       <c r="R23" t="n">
-        <v>4662.18488453114</v>
+        <v>4662.184884531141</v>
       </c>
       <c r="S23" t="n">
-        <v>4526.90380932524</v>
+        <v>4526.903809325241</v>
       </c>
       <c r="T23" t="n">
-        <v>4304.697325272099</v>
+        <v>4304.6973252721</v>
       </c>
       <c r="U23" t="n">
-        <v>4047.636833531609</v>
+        <v>4047.63683353161</v>
       </c>
       <c r="V23" t="n">
-        <v>3697.79927886809</v>
+        <v>3697.799278868091</v>
       </c>
       <c r="W23" t="n">
-        <v>3314.038978003258</v>
+        <v>3314.038978003259</v>
       </c>
       <c r="X23" t="n">
-        <v>2913.395580172211</v>
+        <v>2913.395580172212</v>
       </c>
       <c r="Y23" t="n">
-        <v>2512.458907120301</v>
+        <v>2512.458907120302</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>772.0745395771571</v>
+        <v>3294.526530567175</v>
       </c>
       <c r="C24" t="n">
-        <v>638.0794683261029</v>
+        <v>3160.53145931612</v>
       </c>
       <c r="D24" t="n">
-        <v>521.1823105454953</v>
+        <v>3043.634301535513</v>
       </c>
       <c r="E24" t="n">
-        <v>400.6894945378233</v>
+        <v>2923.141485527841</v>
       </c>
       <c r="F24" t="n">
-        <v>291.7296147203278</v>
+        <v>2814.181605710346</v>
       </c>
       <c r="G24" t="n">
-        <v>184.7395020346666</v>
+        <v>2707.191493024684</v>
       </c>
       <c r="H24" t="n">
-        <v>113.9922890703826</v>
+        <v>2636.444280060401</v>
       </c>
       <c r="I24" t="n">
-        <v>93.2436976906228</v>
+        <v>2615.695688680641</v>
       </c>
       <c r="J24" t="n">
-        <v>93.2436976906228</v>
+        <v>2615.695688680641</v>
       </c>
       <c r="K24" t="n">
-        <v>549.0499539559215</v>
+        <v>2615.695688680641</v>
       </c>
       <c r="L24" t="n">
-        <v>1210.13812587521</v>
+        <v>2615.695688680641</v>
       </c>
       <c r="M24" t="n">
-        <v>1435.775802995229</v>
+        <v>3458.672769375207</v>
       </c>
       <c r="N24" t="n">
-        <v>1435.775802995229</v>
+        <v>4332.330861486826</v>
       </c>
       <c r="O24" t="n">
-        <v>2139.732893541123</v>
+        <v>4662.184884531141</v>
       </c>
       <c r="P24" t="n">
-        <v>2139.732893541123</v>
+        <v>4662.184884531141</v>
       </c>
       <c r="Q24" t="n">
-        <v>2139.732893541123</v>
+        <v>4662.184884531141</v>
       </c>
       <c r="R24" t="n">
-        <v>2139.732893541123</v>
+        <v>4662.184884531141</v>
       </c>
       <c r="S24" t="n">
-        <v>2031.742883655432</v>
+        <v>4554.194874645449</v>
       </c>
       <c r="T24" t="n">
-        <v>1872.40101984244</v>
+        <v>4394.853010832458</v>
       </c>
       <c r="U24" t="n">
-        <v>1675.050208980659</v>
+        <v>4197.502199970676</v>
       </c>
       <c r="V24" t="n">
-        <v>1461.338681973692</v>
+        <v>3983.79067296371</v>
       </c>
       <c r="W24" t="n">
-        <v>1248.105513710021</v>
+        <v>3770.557504700038</v>
       </c>
       <c r="X24" t="n">
-        <v>1071.779531848914</v>
+        <v>3594.231522838931</v>
       </c>
       <c r="Y24" t="n">
-        <v>912.3775722127438</v>
+        <v>3434.829563202761</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3454.824786262162</v>
+        <v>1182.57754799176</v>
       </c>
       <c r="C25" t="n">
-        <v>3297.417113799698</v>
+        <v>1011.484175553476</v>
       </c>
       <c r="D25" t="n">
-        <v>3297.417113799698</v>
+        <v>851.989530876386</v>
       </c>
       <c r="E25" t="n">
-        <v>3297.417113799698</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="F25" t="n">
-        <v>3132.785987910289</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G25" t="n">
-        <v>3132.785987910289</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H25" t="n">
-        <v>3132.785987910289</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I25" t="n">
-        <v>3132.785987910289</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="J25" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K25" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L25" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M25" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N25" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O25" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P25" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q25" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R25" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S25" t="n">
-        <v>4475.79311641105</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T25" t="n">
-        <v>4236.244377387751</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U25" t="n">
-        <v>3953.446229933875</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="V25" t="n">
-        <v>3679.560484873397</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="W25" t="n">
-        <v>3679.560484873397</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="X25" t="n">
-        <v>3679.560484873397</v>
+        <v>1595.012952997039</v>
       </c>
       <c r="Y25" t="n">
-        <v>3454.824786262162</v>
+        <v>1370.277254385804</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2549.191389976085</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="C26" t="n">
         <v>2139.066799289355</v>
@@ -6224,7 +6226,7 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J26" t="n">
-        <v>347.4291691583771</v>
+        <v>347.429169158377</v>
       </c>
       <c r="K26" t="n">
         <v>885.5886702674165</v>
@@ -6251,25 +6253,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S26" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T26" t="n">
-        <v>4662.18488453114</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U26" t="n">
-        <v>4405.12439279065</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V26" t="n">
-        <v>4144.752941388363</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W26" t="n">
-        <v>3760.992640523532</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X26" t="n">
-        <v>3360.349242692484</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y26" t="n">
-        <v>2959.412569640574</v>
+        <v>2549.287978953845</v>
       </c>
     </row>
     <row r="27">
@@ -6306,19 +6308,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K27" t="n">
-        <v>549.0499539559215</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L27" t="n">
-        <v>1210.13812587521</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M27" t="n">
-        <v>1210.13812587521</v>
+        <v>562.1177108836107</v>
       </c>
       <c r="N27" t="n">
-        <v>1210.13812587521</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O27" t="n">
-        <v>1578.027001052593</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P27" t="n">
         <v>2139.732893541123</v>
@@ -6452,10 +6454,10 @@
         <v>452.2785793327262</v>
       </c>
       <c r="G29" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="H29" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I29" t="n">
         <v>93.2436976906228</v>
@@ -6549,7 +6551,7 @@
         <v>93.2436976906228</v>
       </c>
       <c r="M30" t="n">
-        <v>936.2207783851894</v>
+        <v>562.1177108836107</v>
       </c>
       <c r="N30" t="n">
         <v>1435.775802995229</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1182.57754799176</v>
+        <v>3463.374005025663</v>
       </c>
       <c r="C31" t="n">
-        <v>1011.484175553476</v>
+        <v>3292.280632587379</v>
       </c>
       <c r="D31" t="n">
-        <v>851.989530876386</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="E31" t="n">
-        <v>691.0787157447054</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="F31" t="n">
-        <v>526.4475898552967</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="G31" t="n">
-        <v>359.19719878084</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="H31" t="n">
-        <v>209.5897435862967</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="I31" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="J31" t="n">
-        <v>107.3262470958333</v>
+        <v>3146.8685373155</v>
       </c>
       <c r="K31" t="n">
-        <v>261.8785748180713</v>
+        <v>3301.420865037738</v>
       </c>
       <c r="L31" t="n">
-        <v>521.7756750981318</v>
+        <v>3561.317965317798</v>
       </c>
       <c r="M31" t="n">
-        <v>811.0397315386251</v>
+        <v>3850.582021758291</v>
       </c>
       <c r="N31" t="n">
-        <v>1091.878513932875</v>
+        <v>4131.420804152542</v>
       </c>
       <c r="O31" t="n">
-        <v>1351.43912425935</v>
+        <v>4390.981414479016</v>
       </c>
       <c r="P31" t="n">
-        <v>1557.114564508962</v>
+        <v>4596.656854728629</v>
       </c>
       <c r="Q31" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R31" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S31" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T31" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U31" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="V31" t="n">
-        <v>1622.642594311473</v>
+        <v>4393.222936662385</v>
       </c>
       <c r="W31" t="n">
-        <v>1622.642594311473</v>
+        <v>4114.153272171259</v>
       </c>
       <c r="X31" t="n">
-        <v>1595.012952997039</v>
+        <v>3875.809410030943</v>
       </c>
       <c r="Y31" t="n">
-        <v>1370.277254385804</v>
+        <v>3651.073711419707</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2102.237727455811</v>
+        <v>2151.931129920876</v>
       </c>
       <c r="C32" t="n">
-        <v>1692.113136769081</v>
+        <v>1741.806539234146</v>
       </c>
       <c r="D32" t="n">
-        <v>1287.649206862142</v>
+        <v>1337.342609327206</v>
       </c>
       <c r="E32" t="n">
-        <v>873.3089913790386</v>
+        <v>923.0023938441032</v>
       </c>
       <c r="F32" t="n">
-        <v>452.2785793327262</v>
+        <v>501.9719817977906</v>
       </c>
       <c r="G32" t="n">
         <v>93.2436976906228</v>
@@ -6713,7 +6715,7 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O32" t="n">
-        <v>3771.310534127132</v>
+        <v>3771.310534127131</v>
       </c>
       <c r="P32" t="n">
         <v>4300.467232046283</v>
@@ -6731,19 +6733,19 @@
         <v>4304.697325272099</v>
       </c>
       <c r="U32" t="n">
-        <v>4047.636833531609</v>
+        <v>4097.330235996674</v>
       </c>
       <c r="V32" t="n">
-        <v>3697.79927886809</v>
+        <v>3747.492681333154</v>
       </c>
       <c r="W32" t="n">
-        <v>3314.038978003258</v>
+        <v>3363.732380468323</v>
       </c>
       <c r="X32" t="n">
-        <v>2913.395580172211</v>
+        <v>2963.088982637275</v>
       </c>
       <c r="Y32" t="n">
-        <v>2512.458907120301</v>
+        <v>2562.152309585365</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3294.526530567174</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C33" t="n">
-        <v>3160.531459316119</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D33" t="n">
-        <v>3043.634301535512</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E33" t="n">
-        <v>2923.14148552784</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F33" t="n">
-        <v>2814.181605710345</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G33" t="n">
-        <v>2707.191493024683</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H33" t="n">
-        <v>2636.4442800604</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I33" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J33" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K33" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L33" t="n">
-        <v>2615.69568868064</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M33" t="n">
-        <v>3458.672769375206</v>
+        <v>754.331869609911</v>
       </c>
       <c r="N33" t="n">
-        <v>4332.330861486824</v>
+        <v>754.331869609911</v>
       </c>
       <c r="O33" t="n">
-        <v>4662.18488453114</v>
+        <v>1458.288960155805</v>
       </c>
       <c r="P33" t="n">
-        <v>4662.18488453114</v>
+        <v>2019.994852644335</v>
       </c>
       <c r="Q33" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R33" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S33" t="n">
-        <v>4554.194874645448</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T33" t="n">
-        <v>4394.853010832457</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U33" t="n">
-        <v>4197.502199970675</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V33" t="n">
-        <v>3983.790672963709</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W33" t="n">
-        <v>3770.557504700037</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X33" t="n">
-        <v>3594.23152283893</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y33" t="n">
-        <v>3434.82956320276</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="34">
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1182.57754799176</v>
+        <v>569.5961886367127</v>
       </c>
       <c r="C34" t="n">
-        <v>1011.484175553476</v>
+        <v>569.5961886367127</v>
       </c>
       <c r="D34" t="n">
-        <v>851.989530876386</v>
+        <v>410.1015439596227</v>
       </c>
       <c r="E34" t="n">
-        <v>691.0787157447054</v>
+        <v>410.1015439596227</v>
       </c>
       <c r="F34" t="n">
-        <v>526.4475898552967</v>
+        <v>410.1015439596227</v>
       </c>
       <c r="G34" t="n">
-        <v>359.19719878084</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="H34" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I34" t="n">
         <v>93.2436976906228</v>
@@ -6880,28 +6882,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R34" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S34" t="n">
-        <v>1537.369875986873</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T34" t="n">
-        <v>1537.369875986873</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="U34" t="n">
-        <v>1537.369875986873</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="V34" t="n">
-        <v>1537.369875986873</v>
+        <v>1311.74541387939</v>
       </c>
       <c r="W34" t="n">
-        <v>1537.369875986873</v>
+        <v>1032.675749388265</v>
       </c>
       <c r="X34" t="n">
-        <v>1537.369875986873</v>
+        <v>794.331887247948</v>
       </c>
       <c r="Y34" t="n">
-        <v>1312.634177375637</v>
+        <v>569.5961886367127</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2549.191389976085</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C35" t="n">
-        <v>2139.066799289355</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D35" t="n">
-        <v>1734.602869382415</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E35" t="n">
-        <v>1320.262653899312</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="F35" t="n">
-        <v>899.2322418529996</v>
+        <v>588.3237444807176</v>
       </c>
       <c r="G35" t="n">
-        <v>490.5039577458317</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="H35" t="n">
         <v>179.5954603735497</v>
@@ -6962,25 +6964,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S35" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T35" t="n">
-        <v>4662.18488453114</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U35" t="n">
-        <v>4494.590496051882</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V35" t="n">
-        <v>4144.752941388363</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W35" t="n">
-        <v>3760.992640523532</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X35" t="n">
-        <v>3360.349242692484</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y35" t="n">
-        <v>2959.412569640574</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="36">
@@ -7023,10 +7025,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="M36" t="n">
-        <v>936.2207783851894</v>
+        <v>562.1177108836107</v>
       </c>
       <c r="N36" t="n">
-        <v>1809.878870496807</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O36" t="n">
         <v>2139.732893541123</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>93.2436976906228</v>
+        <v>3970.679815034734</v>
       </c>
       <c r="C37" t="n">
-        <v>93.2436976906228</v>
+        <v>3799.586442596451</v>
       </c>
       <c r="D37" t="n">
-        <v>93.2436976906228</v>
+        <v>3640.09179791936</v>
       </c>
       <c r="E37" t="n">
-        <v>93.2436976906228</v>
+        <v>3479.18098278768</v>
       </c>
       <c r="F37" t="n">
-        <v>93.2436976906228</v>
+        <v>3314.549856898271</v>
       </c>
       <c r="G37" t="n">
-        <v>93.2436976906228</v>
+        <v>3147.299465823814</v>
       </c>
       <c r="H37" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="I37" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="J37" t="n">
-        <v>107.3262470958333</v>
+        <v>3146.8685373155</v>
       </c>
       <c r="K37" t="n">
-        <v>261.8785748180713</v>
+        <v>3301.420865037738</v>
       </c>
       <c r="L37" t="n">
-        <v>521.7756750981318</v>
+        <v>3561.317965317798</v>
       </c>
       <c r="M37" t="n">
-        <v>811.0397315386251</v>
+        <v>3850.582021758291</v>
       </c>
       <c r="N37" t="n">
-        <v>1091.878513932875</v>
+        <v>4131.420804152542</v>
       </c>
       <c r="O37" t="n">
-        <v>1351.43912425935</v>
+        <v>4390.981414479016</v>
       </c>
       <c r="P37" t="n">
-        <v>1557.114564508962</v>
+        <v>4596.656854728629</v>
       </c>
       <c r="Q37" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R37" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S37" t="n">
-        <v>1436.250826191383</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T37" t="n">
-        <v>1436.250826191383</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U37" t="n">
-        <v>1153.452678737507</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="V37" t="n">
-        <v>879.5669336770293</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="W37" t="n">
-        <v>600.4972691859036</v>
+        <v>4383.115220040014</v>
       </c>
       <c r="X37" t="n">
-        <v>362.153407045587</v>
+        <v>4383.115220040014</v>
       </c>
       <c r="Y37" t="n">
-        <v>137.4177084343517</v>
+        <v>4158.379521428778</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2128.160977929772</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C38" t="n">
-        <v>1718.036387243042</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D38" t="n">
-        <v>1313.572457336103</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E38" t="n">
-        <v>899.2322418529996</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F38" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G38" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H38" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I38" t="n">
         <v>93.2436976906228</v>
@@ -7199,25 +7201,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S38" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T38" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U38" t="n">
-        <v>4047.636833531609</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V38" t="n">
-        <v>3697.79927886809</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W38" t="n">
-        <v>3314.038978003258</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X38" t="n">
-        <v>2939.318830646172</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y38" t="n">
-        <v>2538.382157594262</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="39">
@@ -7257,13 +7259,13 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L39" t="n">
-        <v>93.2436976906228</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M39" t="n">
-        <v>936.2207783851894</v>
+        <v>1597.308950304478</v>
       </c>
       <c r="N39" t="n">
-        <v>1809.878870496807</v>
+        <v>1597.308950304478</v>
       </c>
       <c r="O39" t="n">
         <v>2139.732893541123</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>936.3214442457152</v>
+        <v>732.3145881425788</v>
       </c>
       <c r="C40" t="n">
-        <v>936.3214442457152</v>
+        <v>561.2212157042953</v>
       </c>
       <c r="D40" t="n">
-        <v>776.8267995686251</v>
+        <v>401.7265710272054</v>
       </c>
       <c r="E40" t="n">
-        <v>691.0787157447054</v>
+        <v>257.8748235800315</v>
       </c>
       <c r="F40" t="n">
-        <v>526.4475898552967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G40" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H40" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I40" t="n">
         <v>93.2436976906228</v>
@@ -7360,22 +7362,22 @@
         <v>1622.642594311473</v>
       </c>
       <c r="T40" t="n">
-        <v>1622.642594311473</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U40" t="n">
-        <v>1622.642594311473</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="V40" t="n">
-        <v>1348.756849250995</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="W40" t="n">
-        <v>1348.756849250995</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="X40" t="n">
-        <v>1348.756849250995</v>
+        <v>1144.749993147859</v>
       </c>
       <c r="Y40" t="n">
-        <v>1124.02115063976</v>
+        <v>920.0142945366232</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1812.198983873336</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C41" t="n">
-        <v>1402.074393186606</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D41" t="n">
-        <v>997.6104632796662</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E41" t="n">
-        <v>583.2702477965629</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F41" t="n">
-        <v>162.2398357502505</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G41" t="n">
-        <v>162.2398357502505</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H41" t="n">
-        <v>162.2398357502505</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I41" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J41" t="n">
-        <v>75.88807306732367</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K41" t="n">
-        <v>614.0475741763632</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L41" t="n">
-        <v>1326.638973988601</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M41" t="n">
-        <v>2102.957564980355</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N41" t="n">
-        <v>2259.89844654507</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O41" t="n">
-        <v>2903.529302962175</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P41" t="n">
-        <v>3432.686000881327</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q41" t="n">
-        <v>3753.847007676619</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R41" t="n">
-        <v>3794.403653366184</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S41" t="n">
-        <v>3794.403653366184</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T41" t="n">
-        <v>3794.403653366184</v>
+        <v>4439.978400477999</v>
       </c>
       <c r="U41" t="n">
-        <v>3537.343161625694</v>
+        <v>4182.917908737509</v>
       </c>
       <c r="V41" t="n">
-        <v>3407.760535285614</v>
+        <v>3833.080354073989</v>
       </c>
       <c r="W41" t="n">
-        <v>3024.000234420782</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X41" t="n">
-        <v>2623.356836589735</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y41" t="n">
-        <v>2222.420163537825</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>754.7189149538581</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C42" t="n">
-        <v>620.7238437028037</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D42" t="n">
-        <v>503.8266859221961</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E42" t="n">
-        <v>383.3338699145241</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F42" t="n">
-        <v>274.3739900970288</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G42" t="n">
-        <v>167.3838774113675</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H42" t="n">
-        <v>96.6366644470835</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I42" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J42" t="n">
-        <v>268.7009306299569</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K42" t="n">
-        <v>724.5071868952557</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L42" t="n">
-        <v>724.5071868952557</v>
+        <v>592.7987223006619</v>
       </c>
       <c r="M42" t="n">
-        <v>724.5071868952557</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="N42" t="n">
-        <v>1598.165279006874</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O42" t="n">
-        <v>1598.165279006874</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P42" t="n">
-        <v>1772.53280423384</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q42" t="n">
-        <v>2122.377268917824</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R42" t="n">
-        <v>2122.377268917824</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S42" t="n">
-        <v>2014.387259032133</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T42" t="n">
-        <v>1855.045395219141</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U42" t="n">
-        <v>1657.694584357359</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V42" t="n">
-        <v>1443.983057350393</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W42" t="n">
-        <v>1230.749889086722</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X42" t="n">
-        <v>1054.423907225615</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y42" t="n">
-        <v>895.0219475894447</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>691.4886976074181</v>
+        <v>413.9445253234496</v>
       </c>
       <c r="C43" t="n">
-        <v>520.3953251691346</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="D43" t="n">
-        <v>520.3953251691346</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="E43" t="n">
-        <v>359.4845100374541</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="F43" t="n">
-        <v>359.4845100374541</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="G43" t="n">
-        <v>192.2341189629975</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="H43" t="n">
-        <v>192.2341189629975</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I43" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J43" t="n">
-        <v>89.97062247253419</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K43" t="n">
-        <v>244.5229501947722</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L43" t="n">
-        <v>504.4200504748327</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M43" t="n">
-        <v>793.684106915326</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N43" t="n">
-        <v>1074.522889309576</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O43" t="n">
-        <v>1334.08349963605</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P43" t="n">
-        <v>1539.758939885663</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q43" t="n">
-        <v>1605.286969688174</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R43" t="n">
-        <v>1605.286969688174</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S43" t="n">
-        <v>1527.242254612898</v>
+        <v>1383.063822843083</v>
       </c>
       <c r="T43" t="n">
-        <v>1527.242254612898</v>
+        <v>1383.063822843083</v>
       </c>
       <c r="U43" t="n">
-        <v>1244.444107159022</v>
+        <v>1100.265675389207</v>
       </c>
       <c r="V43" t="n">
-        <v>970.5583620985437</v>
+        <v>826.3799303287293</v>
       </c>
       <c r="W43" t="n">
-        <v>691.4886976074181</v>
+        <v>826.3799303287293</v>
       </c>
       <c r="X43" t="n">
-        <v>691.4886976074181</v>
+        <v>826.3799303287293</v>
       </c>
       <c r="Y43" t="n">
-        <v>691.4886976074181</v>
+        <v>601.644231717494</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2445.484002669858</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C44" t="n">
-        <v>2035.359411983129</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D44" t="n">
-        <v>1630.895482076189</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="E44" t="n">
-        <v>1216.555266593086</v>
+        <v>1277.772921285978</v>
       </c>
       <c r="F44" t="n">
-        <v>795.5248545467734</v>
+        <v>856.7425092396657</v>
       </c>
       <c r="G44" t="n">
-        <v>386.7965704396057</v>
+        <v>448.0142251324978</v>
       </c>
       <c r="H44" t="n">
-        <v>75.88807306732367</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I44" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J44" t="n">
-        <v>75.88807306732367</v>
+        <v>347.429169158377</v>
       </c>
       <c r="K44" t="n">
-        <v>614.0475741763632</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L44" t="n">
-        <v>1326.638973988601</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M44" t="n">
-        <v>2102.957564980355</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N44" t="n">
-        <v>2856.138581618973</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O44" t="n">
-        <v>3499.769438036078</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P44" t="n">
-        <v>3499.769438036078</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q44" t="n">
-        <v>3794.403653366184</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R44" t="n">
-        <v>3794.403653366184</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S44" t="n">
-        <v>3794.403653366184</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T44" t="n">
-        <v>3794.403653366184</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U44" t="n">
-        <v>3657.285253217306</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V44" t="n">
-        <v>3657.285253217306</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W44" t="n">
-        <v>3657.285253217306</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X44" t="n">
-        <v>3256.641855386258</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y44" t="n">
-        <v>2855.705182334348</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>754.7189149538581</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C45" t="n">
-        <v>620.7238437028037</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D45" t="n">
-        <v>503.8266859221961</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E45" t="n">
-        <v>383.3338699145241</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F45" t="n">
-        <v>274.3739900970288</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G45" t="n">
-        <v>167.3838774113675</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H45" t="n">
-        <v>96.6366644470835</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I45" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J45" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K45" t="n">
-        <v>405.7420961116391</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L45" t="n">
-        <v>405.7420961116391</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="M45" t="n">
-        <v>1248.719176806206</v>
+        <v>2053.115206569777</v>
       </c>
       <c r="N45" t="n">
-        <v>2122.377268917824</v>
+        <v>2053.115206569777</v>
       </c>
       <c r="O45" t="n">
-        <v>2122.377268917824</v>
+        <v>2053.115206569777</v>
       </c>
       <c r="P45" t="n">
-        <v>2122.377268917824</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q45" t="n">
-        <v>2122.377268917824</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R45" t="n">
-        <v>2122.377268917824</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S45" t="n">
-        <v>2014.387259032133</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T45" t="n">
-        <v>1855.045395219141</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U45" t="n">
-        <v>1657.694584357359</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V45" t="n">
-        <v>1443.983057350393</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W45" t="n">
-        <v>1230.749889086722</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X45" t="n">
-        <v>1054.423907225615</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y45" t="n">
-        <v>895.0219475894447</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3183.245234608188</v>
+        <v>1126.242409255547</v>
       </c>
       <c r="C46" t="n">
-        <v>3183.245234608188</v>
+        <v>1011.484175553476</v>
       </c>
       <c r="D46" t="n">
-        <v>3023.750589931098</v>
+        <v>851.989530876386</v>
       </c>
       <c r="E46" t="n">
-        <v>2862.839774799417</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="F46" t="n">
-        <v>2698.208648910008</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G46" t="n">
-        <v>2530.958257835552</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H46" t="n">
-        <v>2381.350802641008</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I46" t="n">
-        <v>2265.004756745334</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J46" t="n">
-        <v>2279.087306150545</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K46" t="n">
-        <v>2433.639633872783</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L46" t="n">
-        <v>2693.536734152843</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M46" t="n">
-        <v>2982.800790593336</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N46" t="n">
-        <v>3263.639572987587</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O46" t="n">
-        <v>3523.200183314061</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P46" t="n">
-        <v>3728.875623563673</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q46" t="n">
-        <v>3794.403653366184</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R46" t="n">
-        <v>3709.130935041584</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S46" t="n">
-        <v>3522.739166921494</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T46" t="n">
-        <v>3457.130979668666</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="U46" t="n">
-        <v>3457.130979668666</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="V46" t="n">
-        <v>3183.245234608188</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="W46" t="n">
-        <v>3183.245234608188</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="X46" t="n">
-        <v>3183.245234608188</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="Y46" t="n">
-        <v>3183.245234608188</v>
+        <v>1126.242409255547</v>
       </c>
     </row>
   </sheetData>
@@ -7976,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K2" t="n">
-        <v>611.1999600432426</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L2" t="n">
-        <v>617.5489684328704</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M2" t="n">
         <v>615.3537948270711</v>
       </c>
       <c r="N2" t="n">
-        <v>296.1630732760186</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O2" t="n">
-        <v>93.18977562578313</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P2" t="n">
-        <v>93.64936328088416</v>
+        <v>270.21439869122</v>
       </c>
       <c r="Q2" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R2" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,22 +8057,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J3" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K3" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L3" t="n">
-        <v>578.1780941808746</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M3" t="n">
-        <v>57.56428373841742</v>
+        <v>532.4592375477437</v>
       </c>
       <c r="N3" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O3" t="n">
-        <v>266.9965351298661</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P3" t="n">
         <v>576.3232053728293</v>
@@ -8213,28 +8215,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K5" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L5" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M5" t="n">
         <v>93.29022445704545</v>
       </c>
       <c r="N5" t="n">
-        <v>534.7878950544006</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O5" t="n">
-        <v>615.2533459958087</v>
+        <v>594.1598684051008</v>
       </c>
       <c r="P5" t="n">
-        <v>615.7129336509097</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q5" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R5" t="n">
         <v>87.31214281472352</v>
@@ -8292,31 +8294,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K6" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L6" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M6" t="n">
-        <v>425.4271248393441</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N6" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O6" t="n">
-        <v>579.8150493700256</v>
+        <v>237.1384347635729</v>
       </c>
       <c r="P6" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R6" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8450,31 +8452,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K8" t="n">
-        <v>89.13638967321712</v>
+        <v>275.0827150970418</v>
       </c>
       <c r="L8" t="n">
-        <v>617.5489684328704</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M8" t="n">
-        <v>93.29022445704545</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N8" t="n">
-        <v>593.8823835359372</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O8" t="n">
-        <v>615.2533459958087</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P8" t="n">
-        <v>615.7129336509097</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q8" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R8" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8532,22 +8534,22 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K9" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L9" t="n">
-        <v>578.1780941808746</v>
+        <v>213.0023571290847</v>
       </c>
       <c r="M9" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N9" t="n">
-        <v>554.1634861730672</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O9" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P9" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q9" t="n">
         <v>56.69261850483872</v>
@@ -8687,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K11" t="n">
         <v>632.7318453389136</v>
@@ -8705,13 +8707,13 @@
         <v>743.321953824879</v>
       </c>
       <c r="P11" t="n">
-        <v>391.2596817961424</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q11" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R11" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8778,13 +8780,13 @@
         <v>909.0562844399999</v>
       </c>
       <c r="N12" t="n">
-        <v>701.4825071992077</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O12" t="n">
-        <v>57.751479</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P12" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q12" t="n">
         <v>56.69261850483872</v>
@@ -8924,10 +8926,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K14" t="n">
-        <v>632.7318453389136</v>
+        <v>632.7318453389137</v>
       </c>
       <c r="L14" t="n">
         <v>815.2746908024792</v>
@@ -8942,13 +8944,13 @@
         <v>743.321953824879</v>
       </c>
       <c r="P14" t="n">
-        <v>391.2596817961424</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q14" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R14" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9015,13 +9017,13 @@
         <v>57.56428373841742</v>
       </c>
       <c r="N15" t="n">
-        <v>174.1409094511109</v>
+        <v>741.5205988334646</v>
       </c>
       <c r="O15" t="n">
         <v>768.8192472281761</v>
       </c>
       <c r="P15" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q15" t="n">
         <v>56.69261850483872</v>
@@ -9164,7 +9166,7 @@
         <v>330.076592815888</v>
       </c>
       <c r="K17" t="n">
-        <v>632.7318453389137</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L17" t="n">
         <v>815.2746908024792</v>
@@ -9246,16 +9248,16 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L18" t="n">
-        <v>389.300405673794</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M18" t="n">
-        <v>909.0562844399999</v>
+        <v>531.1743980747688</v>
       </c>
       <c r="N18" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O18" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P18" t="n">
         <v>54.25963500280375</v>
@@ -9483,16 +9485,16 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L21" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M21" t="n">
         <v>909.0562844399999</v>
       </c>
       <c r="N21" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O21" t="n">
-        <v>605.6544519663084</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P21" t="n">
         <v>54.25963500280375</v>
@@ -9717,19 +9719,19 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K24" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L24" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M24" t="n">
-        <v>285.4811293141939</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N24" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O24" t="n">
-        <v>768.8192472281761</v>
+        <v>390.9373608629444</v>
       </c>
       <c r="P24" t="n">
         <v>54.25963500280375</v>
@@ -9954,22 +9956,22 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K27" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L27" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M27" t="n">
-        <v>57.56428373841742</v>
+        <v>531.1743980747688</v>
       </c>
       <c r="N27" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O27" t="n">
-        <v>429.3564034215989</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P27" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q27" t="n">
         <v>56.69261850483872</v>
@@ -10197,10 +10199,10 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M30" t="n">
-        <v>909.0562844399999</v>
+        <v>531.1743980747688</v>
       </c>
       <c r="N30" t="n">
-        <v>557.7944283533855</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O30" t="n">
         <v>768.8192472281761</v>
@@ -10431,22 +10433,22 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L33" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M33" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N33" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O33" t="n">
-        <v>390.9373608629454</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P33" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q33" t="n">
-        <v>56.69261850483872</v>
+        <v>177.6401345621998</v>
       </c>
       <c r="R33" t="n">
         <v>59.00019910540541</v>
@@ -10671,13 +10673,13 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M36" t="n">
-        <v>909.0562844399999</v>
+        <v>531.1743980747688</v>
       </c>
       <c r="N36" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O36" t="n">
-        <v>390.9373608629449</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P36" t="n">
         <v>54.25963500280375</v>
@@ -10841,10 +10843,10 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q38" t="n">
-        <v>414.4388617681334</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R38" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10905,16 +10907,16 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L39" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M39" t="n">
         <v>909.0562844399999</v>
       </c>
       <c r="N39" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O39" t="n">
-        <v>390.9373608629449</v>
+        <v>605.6544519663084</v>
       </c>
       <c r="P39" t="n">
         <v>54.25963500280375</v>
@@ -11057,10 +11059,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K41" t="n">
-        <v>632.7318453389136</v>
+        <v>632.7318453389137</v>
       </c>
       <c r="L41" t="n">
         <v>815.2746908024792</v>
@@ -11069,7 +11071,7 @@
         <v>877.4504173780091</v>
       </c>
       <c r="N41" t="n">
-        <v>251.4384337512812</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O41" t="n">
         <v>743.321953824879</v>
@@ -11136,28 +11138,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K42" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L42" t="n">
-        <v>56.11452381084905</v>
+        <v>560.7155587704844</v>
       </c>
       <c r="M42" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N42" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O42" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P42" t="n">
-        <v>230.388448363376</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q42" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R42" t="n">
         <v>59.00019910540541</v>
@@ -11294,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K44" t="n">
         <v>632.7318453389136</v>
@@ -11312,13 +11314,13 @@
         <v>743.321953824879</v>
       </c>
       <c r="P44" t="n">
-        <v>93.64936328088416</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q44" t="n">
-        <v>387.6441229144103</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R44" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,22 +11378,22 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K45" t="n">
-        <v>389.0116646475602</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M45" t="n">
         <v>909.0562844399999</v>
       </c>
       <c r="N45" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O45" t="n">
         <v>57.751479</v>
       </c>
       <c r="P45" t="n">
-        <v>54.25963500280375</v>
+        <v>141.7522481051737</v>
       </c>
       <c r="Q45" t="n">
         <v>56.69261850483872</v>
@@ -23255,16 +23257,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>71.84387311573289</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23318,10 +23320,10 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>45.84716204233376</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23413,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,25 +23466,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>121.8692704368164</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>187.3847136220172</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="14">
@@ -23495,7 +23497,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23507,13 +23509,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,13 +23548,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>80.45347287069444</v>
+        <v>222.4997066824607</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23656,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>55.30091438435223</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S16" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U16" t="n">
         <v>279.9701659793371</v>
@@ -23713,10 +23715,10 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>208.6070786176239</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23729,10 +23731,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C17" t="n">
-        <v>137.0114616263634</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23750,7 +23752,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23783,7 +23785,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23792,7 +23794,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>36.3651580272259</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23890,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>157.8996982303191</v>
@@ -23899,16 +23901,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>33.61011053025227</v>
       </c>
       <c r="I19" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23947,13 +23949,13 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V19" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>42.42132408290135</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23984,7 +23986,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24017,13 +24019,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0.756449042671278</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>222.4997066824603</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>70.05164800696416</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24142,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>184.5278504388888</v>
@@ -24187,10 +24189,10 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>208.6070786176239</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24218,13 +24220,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>356.995880838973</v>
+        <v>134.6847134965105</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I23" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24361,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>13.54884297606196</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,22 +24414,22 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
-        <v>235.9604235189134</v>
+        <v>208.6070786176239</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24443,7 +24445,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24491,16 +24493,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>88.57144222862024</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24509,7 +24511,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>36.46078111520831</v>
       </c>
     </row>
     <row r="27">
@@ -24692,13 +24694,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>49.19646844041381</v>
+        <v>134.6847134965114</v>
       </c>
       <c r="H29" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I29" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24844,19 +24846,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24895,13 +24897,13 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V31" t="n">
-        <v>271.1468876098733</v>
+        <v>4.874559219806258</v>
       </c>
       <c r="W31" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>208.6070786176239</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24929,7 +24931,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>49.19646844041381</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>307.7994123985592</v>
@@ -24971,7 +24973,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>49.19646844041395</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -25072,19 +25074,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>57.0666462400651</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25093,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S34" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>237.1532516330649</v>
@@ -25132,13 +25134,13 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V34" t="n">
-        <v>271.1468876098733</v>
+        <v>147.8865294210004</v>
       </c>
       <c r="W34" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25163,13 +25165,13 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>134.6847134965114</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25202,13 +25204,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>88.57144222861982</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25309,25 +25311,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>142.0904386938123</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.1113806425979</v>
+        <v>133.7430375082081</v>
       </c>
       <c r="I37" t="n">
         <v>115.1825854367171</v>
@@ -25360,22 +25362,22 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T37" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25400,7 +25402,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -25409,7 +25411,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25439,13 +25441,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25454,7 +25456,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>25.66401796922162</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25549,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>74.41110399468319</v>
+        <v>16.88847700766166</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25600,19 +25602,19 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T40" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25640,10 +25642,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25679,16 +25681,16 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>218.052379040205</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>308.5558614412302</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25783,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25792,19 +25794,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H43" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>107.2635825143655</v>
+        <v>31.76485782653742</v>
       </c>
       <c r="T43" t="n">
         <v>237.1532516330649</v>
@@ -25846,13 +25848,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25868,7 +25870,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25880,10 +25882,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>42.06483528720054</v>
       </c>
       <c r="I44" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,19 +25915,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>118.7426706756956</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26023,7 +26025,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>169.3824387139007</v>
+        <v>55.77178734884988</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26074,13 +26076,13 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>172.2011462527652</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U46" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
         <v>276.2789678462144</v>
@@ -26089,7 +26091,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>693762.9132482179</v>
+        <v>698121.5747740569</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>550912.2197870867</v>
+        <v>622989.447630616</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>550912.2197870867</v>
+        <v>622989.447630616</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>622989.4476306159</v>
+        <v>622989.447630616</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>622989.4476306159</v>
+        <v>622989.447630616</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>622989.4476306158</v>
+        <v>622989.447630616</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>622989.447630616</v>
+        <v>622989.4476306159</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>622989.4476306159</v>
+        <v>622989.447630616</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>622989.447630616</v>
+        <v>622989.4476306159</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>622989.4476306159</v>
+        <v>622989.447630616</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>550912.2197870866</v>
+        <v>622989.447630616</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>550912.2197870866</v>
+        <v>622989.4476306159</v>
       </c>
     </row>
   </sheetData>
@@ -26311,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>456070.7004908795</v>
+      </c>
+      <c r="C2" t="n">
         <v>456070.7004908794</v>
       </c>
-      <c r="C2" t="n">
-        <v>456070.7004908795</v>
-      </c>
       <c r="D2" t="n">
-        <v>456070.7004908795</v>
+        <v>456070.7004908794</v>
       </c>
       <c r="E2" t="n">
-        <v>358596.2769005954</v>
+        <v>405508.1345491313</v>
       </c>
       <c r="F2" t="n">
-        <v>358596.2769005953</v>
+        <v>405508.1345491313</v>
       </c>
       <c r="G2" t="n">
-        <v>405508.1345491314</v>
+        <v>405508.1345491313</v>
       </c>
       <c r="H2" t="n">
         <v>405508.1345491313</v>
       </c>
       <c r="I2" t="n">
-        <v>405508.1345491314</v>
+        <v>405508.1345491311</v>
       </c>
       <c r="J2" t="n">
-        <v>405508.1345491316</v>
+        <v>405508.134549131</v>
       </c>
       <c r="K2" t="n">
         <v>405508.1345491313</v>
@@ -26344,16 +26346,16 @@
         <v>405508.1345491313</v>
       </c>
       <c r="M2" t="n">
+        <v>405508.1345491314</v>
+      </c>
+      <c r="N2" t="n">
         <v>405508.1345491313</v>
       </c>
-      <c r="N2" t="n">
-        <v>405508.1345491312</v>
-      </c>
       <c r="O2" t="n">
-        <v>358596.2769005953</v>
+        <v>405508.1345491314</v>
       </c>
       <c r="P2" t="n">
-        <v>358596.2769005952</v>
+        <v>405508.1345491314</v>
       </c>
     </row>
     <row r="3">
@@ -26369,16 +26371,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>171827.4689100681</v>
       </c>
       <c r="E3" t="n">
-        <v>127354.6667897506</v>
+        <v>26968.95418093466</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>59461.45468596174</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>136594.800805895</v>
+        <v>136594.8008058949</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>139999.3108647524</v>
       </c>
       <c r="M3" t="n">
-        <v>106294.8120178748</v>
+        <v>22509.26477404779</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,13 +26423,13 @@
         <v>164775.2337200961</v>
       </c>
       <c r="D4" t="n">
-        <v>164775.2337200961</v>
+        <v>71864.46850972388</v>
       </c>
       <c r="E4" t="n">
-        <v>13653.36588409532</v>
+        <v>15465.37373706398</v>
       </c>
       <c r="F4" t="n">
-        <v>13653.36588409532</v>
+        <v>15465.37373706398</v>
       </c>
       <c r="G4" t="n">
         <v>15465.37373706398</v>
@@ -26454,10 +26456,10 @@
         <v>15465.37373706398</v>
       </c>
       <c r="O4" t="n">
-        <v>13653.36588409532</v>
+        <v>15465.37373706398</v>
       </c>
       <c r="P4" t="n">
-        <v>13653.36588409532</v>
+        <v>15465.37373706398</v>
       </c>
     </row>
     <row r="5">
@@ -26473,13 +26475,13 @@
         <v>65369.06507849755</v>
       </c>
       <c r="D5" t="n">
-        <v>65369.06507849755</v>
+        <v>99001.07135520017</v>
       </c>
       <c r="E5" t="n">
-        <v>57674.93553116599</v>
+        <v>70865.21024487332</v>
       </c>
       <c r="F5" t="n">
-        <v>57674.93553116599</v>
+        <v>70865.21024487332</v>
       </c>
       <c r="G5" t="n">
         <v>70865.21024487332</v>
@@ -26488,7 +26490,7 @@
         <v>70865.21024487332</v>
       </c>
       <c r="I5" t="n">
-        <v>70865.21024487332</v>
+        <v>70865.21024487333</v>
       </c>
       <c r="J5" t="n">
         <v>70865.21024487332</v>
@@ -26506,10 +26508,10 @@
         <v>70865.21024487332</v>
       </c>
       <c r="O5" t="n">
-        <v>57674.93553116599</v>
+        <v>70865.21024487332</v>
       </c>
       <c r="P5" t="n">
-        <v>57674.93553116599</v>
+        <v>70865.21024487332</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>50970.89179917177</v>
+        <v>50970.89179917175</v>
       </c>
       <c r="C6" t="n">
-        <v>225926.4016922859</v>
+        <v>225926.4016922858</v>
       </c>
       <c r="D6" t="n">
-        <v>225926.4016922858</v>
+        <v>113377.6917158873</v>
       </c>
       <c r="E6" t="n">
-        <v>159913.3086955835</v>
+        <v>292208.5963862594</v>
       </c>
       <c r="F6" t="n">
-        <v>287267.975485334</v>
+        <v>319177.5505671941</v>
       </c>
       <c r="G6" t="n">
-        <v>259716.0958812324</v>
+        <v>319177.550567194</v>
       </c>
       <c r="H6" t="n">
+        <v>319177.550567194</v>
+      </c>
+      <c r="I6" t="n">
+        <v>319177.5505671938</v>
+      </c>
+      <c r="J6" t="n">
+        <v>182582.7497612988</v>
+      </c>
+      <c r="K6" t="n">
+        <v>319177.550567194</v>
+      </c>
+      <c r="L6" t="n">
+        <v>179178.2397024416</v>
+      </c>
+      <c r="M6" t="n">
+        <v>296668.2857931464</v>
+      </c>
+      <c r="N6" t="n">
         <v>319177.5505671941</v>
       </c>
-      <c r="I6" t="n">
+      <c r="O6" t="n">
+        <v>319177.5505671942</v>
+      </c>
+      <c r="P6" t="n">
         <v>319177.5505671941</v>
-      </c>
-      <c r="J6" t="n">
-        <v>182582.7497612993</v>
-      </c>
-      <c r="K6" t="n">
-        <v>319177.5505671941</v>
-      </c>
-      <c r="L6" t="n">
-        <v>319177.5505671941</v>
-      </c>
-      <c r="M6" t="n">
-        <v>212882.7385493193</v>
-      </c>
-      <c r="N6" t="n">
-        <v>319177.5505671939</v>
-      </c>
-      <c r="O6" t="n">
-        <v>287267.975485334</v>
-      </c>
-      <c r="P6" t="n">
-        <v>287267.9754853339</v>
       </c>
     </row>
   </sheetData>
@@ -26793,13 +26795,13 @@
         <v>522.0635703700256</v>
       </c>
       <c r="D4" t="n">
-        <v>522.0635703700256</v>
+        <v>1075.221568342108</v>
       </c>
       <c r="E4" t="n">
-        <v>948.6009133415459</v>
+        <v>1165.546221132785</v>
       </c>
       <c r="F4" t="n">
-        <v>948.6009133415459</v>
+        <v>1165.546221132785</v>
       </c>
       <c r="G4" t="n">
         <v>1165.546221132785</v>
@@ -26826,10 +26828,10 @@
         <v>1165.546221132785</v>
       </c>
       <c r="O4" t="n">
-        <v>948.6009133415459</v>
+        <v>1165.546221132785</v>
       </c>
       <c r="P4" t="n">
-        <v>948.6009133415459</v>
+        <v>1165.546221132785</v>
       </c>
     </row>
   </sheetData>
@@ -27015,16 +27017,16 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>553.1579979720827</v>
       </c>
       <c r="E4" t="n">
-        <v>426.5373429715204</v>
+        <v>90.32465279067667</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>216.945307791239</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700252</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>553.1579979720827</v>
       </c>
       <c r="M4" t="n">
-        <v>426.5373429715204</v>
+        <v>90.32465279067667</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27261,16 +27263,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>553.1579979720827</v>
       </c>
       <c r="M4" t="n">
-        <v>426.5373429715204</v>
+        <v>90.32465279067667</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>216.945307791239</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27379,7 +27381,7 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
@@ -27388,7 +27390,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27427,22 +27429,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>320.304850005244</v>
+        <v>288.6456991383524</v>
       </c>
       <c r="Y2" t="n">
         <v>396.9273063213908</v>
@@ -27540,22 +27542,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>71.22740062156485</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>57.06664624006515</v>
       </c>
     </row>
     <row r="5">
@@ -27613,19 +27615,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>400</v>
+        <v>18.19522188379983</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>223.2347562260717</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27664,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
         <v>346.3391791168841</v>
@@ -27679,7 +27681,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
         <v>396.9273063213908</v>
@@ -27771,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27780,19 +27782,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
         <v>184.5278504388888</v>
@@ -27831,16 +27833,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>66.83965265923393</v>
       </c>
       <c r="W7" t="n">
-        <v>174.8465175368242</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="8">
@@ -27850,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,7 +27864,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>145.4111437922969</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27901,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>396.636963852737</v>
+        <v>312.748594874404</v>
       </c>
       <c r="Y8" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28014,19 +28016,19 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>93.42449318090675</v>
       </c>
       <c r="I10" t="n">
         <v>115.1825854367171</v>
@@ -28056,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
         <v>184.5278504388888</v>
@@ -28065,13 +28067,13 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
-        <v>88.32951114290339</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="N2" t="n">
-        <v>203.2507825193993</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>176.5650354103359</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R2" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,22 +34777,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K3" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>474.8949538093263</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>209.2450561298661</v>
       </c>
       <c r="P3" t="n">
         <v>522.0635703700256</v>
@@ -34933,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>441.8756042977813</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O5" t="n">
-        <v>522.0635703700256</v>
+        <v>500.9700927793177</v>
       </c>
       <c r="P5" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M6" t="n">
-        <v>367.8628411009267</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>179.3869557635729</v>
+      </c>
+      <c r="P6" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="O6" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>185.9463254238247</v>
       </c>
       <c r="L8" t="n">
-        <v>522.0635703700256</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N8" t="n">
-        <v>500.9700927793178</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O8" t="n">
-        <v>522.0635703700256</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P8" t="n">
-        <v>522.0635703700256</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35252,22 +35254,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L9" t="n">
-        <v>522.0635703700256</v>
+        <v>156.8878333182357</v>
       </c>
       <c r="M9" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>500.9700927793172</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O9" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35407,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K11" t="n">
         <v>543.5954556656965</v>
@@ -35425,13 +35427,13 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P11" t="n">
-        <v>297.6103185152583</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35498,13 +35500,13 @@
         <v>851.4920007015825</v>
       </c>
       <c r="N12" t="n">
-        <v>648.2891138054578</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P12" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35644,10 +35646,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K14" t="n">
-        <v>543.5954556656965</v>
+        <v>543.5954556656966</v>
       </c>
       <c r="L14" t="n">
         <v>719.7892927396343</v>
@@ -35662,13 +35664,13 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P14" t="n">
-        <v>297.6103185152583</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35735,13 +35737,13 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>120.9475160573609</v>
+        <v>688.3272054397147</v>
       </c>
       <c r="O15" t="n">
         <v>711.0677682281761</v>
       </c>
       <c r="P15" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35884,7 +35886,7 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K17" t="n">
-        <v>543.5954556656966</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L17" t="n">
         <v>719.7892927396343</v>
@@ -35966,16 +35968,16 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>851.4920007015825</v>
+        <v>473.6101143363514</v>
       </c>
       <c r="N18" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36203,16 +36205,16 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>851.4920007015825</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O21" t="n">
-        <v>547.9029729663084</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36437,19 +36439,19 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>227.9168455757764</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O24" t="n">
-        <v>711.0677682281761</v>
+        <v>333.1858818629444</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36674,22 +36676,22 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>473.6101143363514</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O27" t="n">
-        <v>371.6049244215989</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P27" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36917,10 +36919,10 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>851.4920007015825</v>
+        <v>473.6101143363514</v>
       </c>
       <c r="N30" t="n">
-        <v>504.6010349596355</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O30" t="n">
         <v>711.0677682281761</v>
@@ -37151,22 +37153,22 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M33" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>333.1858818629454</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>120.947516057361</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37391,13 +37393,13 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>851.4920007015825</v>
+        <v>473.6101143363514</v>
       </c>
       <c r="N36" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O36" t="n">
-        <v>333.1858818629449</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37561,10 +37563,10 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q38" t="n">
-        <v>324.4050573689814</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R38" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,16 +37627,16 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M39" t="n">
         <v>851.4920007015825</v>
       </c>
       <c r="N39" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>333.1858818629449</v>
+        <v>547.9029729663084</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37777,10 +37779,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K41" t="n">
-        <v>543.5954556656965</v>
+        <v>543.5954556656966</v>
       </c>
       <c r="L41" t="n">
         <v>719.7892927396343</v>
@@ -37789,7 +37791,7 @@
         <v>784.1601929209636</v>
       </c>
       <c r="N41" t="n">
-        <v>158.5261429946619</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O41" t="n">
         <v>650.1321781990958</v>
@@ -37856,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>504.6010349596355</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N42" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P42" t="n">
-        <v>176.1288133605723</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38014,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K44" t="n">
         <v>543.5954556656965</v>
@@ -38032,13 +38034,13 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q44" t="n">
-        <v>297.6103185152583</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,22 +38098,22 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>333.1858818629448</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M45" t="n">
         <v>851.4920007015825</v>
       </c>
       <c r="N45" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>87.49261310237</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_1_28.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_1_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2019532.172355447</v>
+        <v>2018219.526899868</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5301029.811029742</v>
+        <v>5301029.81102974</v>
       </c>
     </row>
     <row r="8">
@@ -664,7 +664,7 @@
         <v>6.023344779862555</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4192906078700389</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E2" t="n">
         <v>410.1968133282722</v>
@@ -676,7 +676,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
         <v>85.48824505609757</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>107.9912647143846</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>168.5327014489337</v>
       </c>
     </row>
     <row r="3">
@@ -831,13 +831,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -879,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>220.264774625403</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
-        <v>165.4216953850578</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="5">
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>387.9237459840447</v>
+        <v>6.11896786784456</v>
       </c>
       <c r="C5" t="n">
-        <v>406.0233447798626</v>
+        <v>6.023344779862555</v>
       </c>
       <c r="D5" t="n">
-        <v>400.41929060787</v>
+        <v>255.0081468155732</v>
       </c>
       <c r="E5" t="n">
         <v>410.1968133282722</v>
@@ -910,13 +910,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G5" t="n">
-        <v>4.641001266096112</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
         <v>159.3017069803637</v>
@@ -1068,10 +1068,10 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
         <v>115.1825854367171</v>
@@ -1107,22 +1107,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>204.3072349506393</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>27.35334490128912</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="8">
@@ -1135,10 +1135,10 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C8" t="n">
-        <v>406.0233447798626</v>
+        <v>13.00730633473924</v>
       </c>
       <c r="D8" t="n">
-        <v>400.41929060787</v>
+        <v>0.4192906078700389</v>
       </c>
       <c r="E8" t="n">
         <v>410.1968133282722</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
         <v>219.9844192126098</v>
@@ -1192,13 +1192,13 @@
         <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
-        <v>83.88836897833299</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
         <v>396.9273063213908</v>
@@ -1308,10 +1308,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
-        <v>54.68688746169116</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1356,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.4883416251229</v>
+        <v>165.4216953850578</v>
       </c>
     </row>
     <row r="11">
@@ -1423,19 +1423,19 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T11" t="n">
-        <v>219.9844192126098</v>
+        <v>31.99018014062471</v>
       </c>
       <c r="U11" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
-        <v>334.0755358138493</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y11" t="n">
         <v>396.9273063213908</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>115.2839811962485</v>
+        <v>228.6602100130295</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="14">
@@ -1624,7 +1624,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H14" t="n">
-        <v>307.7994123985592</v>
+        <v>262.2425928248799</v>
       </c>
       <c r="I14" t="n">
         <v>85.48824505609757</v>
@@ -1660,13 +1660,13 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U14" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V14" t="n">
-        <v>123.8394724344234</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
         <v>379.9226978561831</v>
@@ -1675,7 +1675,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y14" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>169.3824387139007</v>
+        <v>98.9457413571089</v>
       </c>
       <c r="D16" t="n">
         <v>157.8996982303191</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1830,10 +1830,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>27.35334490128957</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C17" t="n">
         <v>406.0233447798626</v>
@@ -1864,7 +1864,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I17" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,19 +1894,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>133.9282644538401</v>
+        <v>31.42227043795236</v>
       </c>
       <c r="T17" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U17" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W17" t="n">
-        <v>343.5575398289572</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X17" t="n">
         <v>396.636963852737</v>
@@ -2004,7 +2004,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2013,16 +2013,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>104.8004549397462</v>
       </c>
       <c r="H19" t="n">
-        <v>114.5012701123456</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I19" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2055,22 +2055,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V19" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>406.1189678678446</v>
+        <v>271.4342543713331</v>
       </c>
       <c r="C20" t="n">
         <v>406.0233447798626</v>
@@ -2098,7 +2098,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H20" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>85.48824505609757</v>
@@ -2134,10 +2134,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U20" t="n">
-        <v>31.99018014062471</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V20" t="n">
         <v>346.3391791168841</v>
@@ -2238,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>115.7710613231398</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>159.3017069803637</v>
@@ -2256,10 +2256,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>0.7251926927197427</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2301,7 +2301,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2329,16 +2329,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F23" t="n">
-        <v>416.8201079258493</v>
+        <v>59.82422708687625</v>
       </c>
       <c r="G23" t="n">
-        <v>269.9562877695856</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I23" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2475,22 +2475,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>148.1113806425979</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>193.5927947728082</v>
       </c>
       <c r="X25" t="n">
-        <v>27.35334490128957</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2557,7 +2557,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D26" t="n">
         <v>400.41929060787</v>
@@ -2614,16 +2614,16 @@
         <v>254.489886823085</v>
       </c>
       <c r="V26" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>379.9226978561831</v>
+        <v>283.7777510779965</v>
       </c>
       <c r="X26" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y26" t="n">
-        <v>360.4665252061825</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="27">
@@ -2715,19 +2715,19 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>54.2295853978245</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>148.1113806425979</v>
@@ -2766,19 +2766,19 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>27.35334490128957</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>222.4883416251229</v>
@@ -2806,10 +2806,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
-        <v>269.9562877695847</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I29" t="n">
         <v>85.48824505609757</v>
@@ -2848,10 +2848,10 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U29" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>346.3391791168841</v>
+        <v>158.3449400448986</v>
       </c>
       <c r="W29" t="n">
         <v>379.9226978561831</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>105.8745427447691</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3009,16 +3009,16 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>266.272328390067</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3037,7 +3037,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E32" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>416.8201079258493</v>
@@ -3046,10 +3046,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>275.5120998317608</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3085,7 +3085,7 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U32" t="n">
-        <v>205.293418382671</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V32" t="n">
         <v>346.3391791168841</v>
@@ -3189,22 +3189,22 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>136.0298999305241</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H34" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3240,16 +3240,16 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>123.2603581888729</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>235.9604235189134</v>
@@ -3277,16 +3277,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
-        <v>282.1353944293379</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G35" t="n">
-        <v>404.6410012660961</v>
+        <v>401.5578040935733</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I35" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>254.489886823085</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>169.3824387139007</v>
@@ -3435,16 +3435,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>14.36834313438984</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3483,16 +3483,16 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
-        <v>276.2789678462144</v>
+        <v>224.1323684606266</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3517,7 +3517,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G38" t="n">
-        <v>404.6410012660961</v>
+        <v>302.1350072502081</v>
       </c>
       <c r="H38" t="n">
         <v>307.7994123985592</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U38" t="n">
-        <v>251.4066896505621</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>346.3391791168841</v>
@@ -3663,13 +3663,13 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
-        <v>142.4132299727021</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
         <v>162.9848146305146</v>
@@ -3678,10 +3678,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T40" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>78.70091919071714</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3726,10 +3726,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3757,7 +3757,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H41" t="n">
-        <v>307.7994123985592</v>
+        <v>211.6544656203731</v>
       </c>
       <c r="I41" t="n">
         <v>85.48824505609757</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
         <v>219.9844192126098</v>
@@ -3799,10 +3799,10 @@
         <v>254.489886823085</v>
       </c>
       <c r="V41" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>71.36683641495289</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
         <v>396.636963852737</v>
@@ -3900,22 +3900,22 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>107.0920653097413</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H43" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,25 +3945,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>152.7629926123514</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
         <v>222.4883416251229</v>
@@ -3982,7 +3982,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>43.42340976889702</v>
       </c>
       <c r="E44" t="n">
         <v>410.1968133282722</v>
@@ -3994,10 +3994,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H44" t="n">
-        <v>265.7345771113586</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>113.6106513650508</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>157.8996982303191</v>
@@ -4152,10 +4152,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H46" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S46" t="n">
-        <v>184.5278504388888</v>
+        <v>139.6493350342375</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -4200,7 +4200,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
         <v>222.4883416251229</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>974.6830684215697</v>
+        <v>1689.631969834256</v>
       </c>
       <c r="C2" t="n">
-        <v>968.5988817752439</v>
+        <v>1683.54778318793</v>
       </c>
       <c r="D2" t="n">
-        <v>968.1753559087084</v>
+        <v>1279.08385328099</v>
       </c>
       <c r="E2" t="n">
-        <v>553.8351404256051</v>
+        <v>864.7436377978871</v>
       </c>
       <c r="F2" t="n">
-        <v>536.8451324196967</v>
+        <v>847.7536297919787</v>
       </c>
       <c r="G2" t="n">
-        <v>128.1168483125289</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="H2" t="n">
         <v>128.1168483125289</v>
@@ -4333,19 +4333,19 @@
         <v>41.76508562960205</v>
       </c>
       <c r="K2" t="n">
-        <v>41.76508562960205</v>
+        <v>216.5644706858345</v>
       </c>
       <c r="L2" t="n">
-        <v>41.76508562960205</v>
+        <v>733.4074053521598</v>
       </c>
       <c r="M2" t="n">
-        <v>558.6080202959273</v>
+        <v>733.4074053521598</v>
       </c>
       <c r="N2" t="n">
-        <v>1075.450954962253</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="O2" t="n">
-        <v>1592.293889628578</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="P2" t="n">
         <v>1767.09327468481</v>
@@ -4357,25 +4357,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S2" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T2" t="n">
-        <v>1730.766722221062</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="U2" t="n">
-        <v>1473.706230480572</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="V2" t="n">
-        <v>1473.706230480572</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="W2" t="n">
-        <v>1089.945929615741</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="X2" t="n">
-        <v>980.8638440456551</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="Y2" t="n">
-        <v>980.8638440456551</v>
+        <v>1695.812745458341</v>
       </c>
     </row>
     <row r="3">
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>720.5959275161367</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C3" t="n">
-        <v>586.6008562650825</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D3" t="n">
-        <v>469.7036984844749</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E3" t="n">
-        <v>349.2108824768029</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F3" t="n">
-        <v>240.2510026593075</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G3" t="n">
         <v>133.260889973646</v>
@@ -4406,31 +4406,31 @@
         <v>62.51367700936203</v>
       </c>
       <c r="I3" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960225</v>
       </c>
       <c r="J3" t="n">
-        <v>234.5779431922353</v>
+        <v>234.5779431922355</v>
       </c>
       <c r="K3" t="n">
-        <v>234.5779431922353</v>
+        <v>690.3841994575342</v>
       </c>
       <c r="L3" t="n">
-        <v>234.5779431922353</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="M3" t="n">
-        <v>704.7239474634683</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="N3" t="n">
-        <v>704.7239474634683</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="O3" t="n">
-        <v>1221.566882129794</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="P3" t="n">
-        <v>1738.409816796119</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q3" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R3" t="n">
         <v>2088.254281480102</v>
@@ -4454,7 +4454,7 @@
         <v>1020.300919787893</v>
       </c>
       <c r="Y3" t="n">
-        <v>860.8989601517234</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="4">
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1131.098935930739</v>
+        <v>697.8950437660649</v>
       </c>
       <c r="C4" t="n">
-        <v>960.0055634924552</v>
+        <v>526.8016713277814</v>
       </c>
       <c r="D4" t="n">
-        <v>800.5109188153651</v>
+        <v>367.3070266506913</v>
       </c>
       <c r="E4" t="n">
-        <v>639.6001036836846</v>
+        <v>206.3962115190108</v>
       </c>
       <c r="F4" t="n">
-        <v>474.9689777942758</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G4" t="n">
-        <v>307.7185867198193</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H4" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I4" t="n">
         <v>41.76508562960205</v>
@@ -4512,28 +4512,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R4" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S4" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T4" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U4" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V4" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="W4" t="n">
-        <v>1485.891263925851</v>
+        <v>1348.674310911661</v>
       </c>
       <c r="X4" t="n">
-        <v>1485.891263925851</v>
+        <v>1110.330448771344</v>
       </c>
       <c r="Y4" t="n">
-        <v>1318.798642324783</v>
+        <v>885.5947501601092</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1696.412113819451</v>
+        <v>1946.792430650117</v>
       </c>
       <c r="C5" t="n">
-        <v>1286.287523132721</v>
+        <v>1940.708244003792</v>
       </c>
       <c r="D5" t="n">
-        <v>881.8235932257816</v>
+        <v>1683.124257321394</v>
       </c>
       <c r="E5" t="n">
-        <v>467.4833777426783</v>
+        <v>1268.784041838291</v>
       </c>
       <c r="F5" t="n">
-        <v>46.45296569636579</v>
+        <v>847.7536297919787</v>
       </c>
       <c r="G5" t="n">
-        <v>41.76508562960205</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="H5" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I5" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J5" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K5" t="n">
-        <v>558.6080202959273</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L5" t="n">
-        <v>1075.450954962253</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="M5" t="n">
-        <v>1075.450954962253</v>
+        <v>1846.479361096332</v>
       </c>
       <c r="N5" t="n">
-        <v>1592.293889628578</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="O5" t="n">
         <v>2088.254281480102</v>
@@ -4594,25 +4594,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S5" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T5" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="U5" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="V5" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="W5" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="X5" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="Y5" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C6" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D6" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E6" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F6" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G6" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H6" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I6" t="n">
         <v>41.76508562960205</v>
@@ -4649,22 +4649,22 @@
         <v>41.76508562960205</v>
       </c>
       <c r="K6" t="n">
-        <v>497.5713418949007</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L6" t="n">
-        <v>1014.414276561226</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="M6" t="n">
-        <v>1014.414276561226</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="N6" t="n">
-        <v>1014.414276561226</v>
+        <v>675.1644281008383</v>
       </c>
       <c r="O6" t="n">
-        <v>1192.007362767163</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="P6" t="n">
-        <v>1708.850297433488</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q6" t="n">
         <v>2058.694762117472</v>
@@ -4682,16 +4682,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V6" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W6" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X6" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y6" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="7">
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>654.7464449846486</v>
+        <v>1131.098935930739</v>
       </c>
       <c r="C7" t="n">
-        <v>483.6530725463652</v>
+        <v>960.0055634924552</v>
       </c>
       <c r="D7" t="n">
-        <v>483.6530725463652</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="E7" t="n">
-        <v>322.7422574146847</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="F7" t="n">
-        <v>158.1111315252759</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G7" t="n">
-        <v>158.1111315252759</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="H7" t="n">
         <v>158.1111315252759</v>
@@ -4755,22 +4755,22 @@
         <v>1571.163982250452</v>
       </c>
       <c r="T7" t="n">
-        <v>1331.615243227154</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U7" t="n">
-        <v>1048.817095773278</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V7" t="n">
-        <v>842.446151378693</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="W7" t="n">
-        <v>842.446151378693</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="X7" t="n">
-        <v>842.446151378693</v>
+        <v>1543.534340936018</v>
       </c>
       <c r="Y7" t="n">
-        <v>842.446151378693</v>
+        <v>1318.798642324783</v>
       </c>
     </row>
     <row r="8">
@@ -4780,10 +4780,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2541.96541775283</v>
+        <v>1740.93911629311</v>
       </c>
       <c r="C8" t="n">
-        <v>2131.840827066101</v>
+        <v>1727.800423025697</v>
       </c>
       <c r="D8" t="n">
         <v>1727.376897159161</v>
@@ -4792,64 +4792,64 @@
         <v>1313.036681676058</v>
       </c>
       <c r="F8" t="n">
-        <v>892.0062696297454</v>
+        <v>892.0062696297455</v>
       </c>
       <c r="G8" t="n">
-        <v>483.2779855225775</v>
+        <v>483.2779855225776</v>
       </c>
       <c r="H8" t="n">
-        <v>172.3694881502955</v>
+        <v>172.3694881502956</v>
       </c>
       <c r="I8" t="n">
-        <v>86.01772546736866</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="J8" t="n">
-        <v>340.2031969351229</v>
+        <v>340.2031969351231</v>
       </c>
       <c r="K8" t="n">
-        <v>524.2900591047094</v>
+        <v>878.3626980441626</v>
       </c>
       <c r="L8" t="n">
-        <v>1236.881458916947</v>
+        <v>1558.042465712245</v>
       </c>
       <c r="M8" t="n">
-        <v>2013.200049908701</v>
+        <v>2334.361056703999</v>
       </c>
       <c r="N8" t="n">
-        <v>2766.381066547319</v>
+        <v>3087.542073342617</v>
       </c>
       <c r="O8" t="n">
-        <v>3410.011922964424</v>
+        <v>3731.172929759722</v>
       </c>
       <c r="P8" t="n">
-        <v>3939.168620883576</v>
+        <v>4260.329627678873</v>
       </c>
       <c r="Q8" t="n">
-        <v>4260.329627678868</v>
+        <v>4260.329627678873</v>
       </c>
       <c r="R8" t="n">
-        <v>4300.886273368433</v>
+        <v>4300.886273368438</v>
       </c>
       <c r="S8" t="n">
-        <v>4300.886273368433</v>
+        <v>4165.605198162539</v>
       </c>
       <c r="T8" t="n">
-        <v>4078.679789315292</v>
+        <v>3943.398714109398</v>
       </c>
       <c r="U8" t="n">
-        <v>3821.619297574802</v>
+        <v>3686.338222368908</v>
       </c>
       <c r="V8" t="n">
-        <v>3821.619297574802</v>
+        <v>3336.500667705388</v>
       </c>
       <c r="W8" t="n">
-        <v>3437.85899670997</v>
+        <v>2952.740366840557</v>
       </c>
       <c r="X8" t="n">
-        <v>3353.12327046923</v>
+        <v>2552.096969009509</v>
       </c>
       <c r="Y8" t="n">
-        <v>2952.18659741732</v>
+        <v>2151.160295957599</v>
       </c>
     </row>
     <row r="9">
@@ -4874,37 +4874,37 @@
         <v>284.5036424970738</v>
       </c>
       <c r="G9" t="n">
-        <v>177.5135298114124</v>
+        <v>177.5135298114125</v>
       </c>
       <c r="H9" t="n">
-        <v>106.7663168471285</v>
+        <v>106.7663168471286</v>
       </c>
       <c r="I9" t="n">
-        <v>86.01772546736866</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="J9" t="n">
-        <v>86.01772546736866</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="K9" t="n">
-        <v>541.8239817326673</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="L9" t="n">
-        <v>697.1429367177207</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="M9" t="n">
-        <v>697.1429367177207</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="N9" t="n">
-        <v>1570.801028829339</v>
+        <v>487.4399542368308</v>
       </c>
       <c r="O9" t="n">
-        <v>1570.801028829339</v>
+        <v>1191.397044782725</v>
       </c>
       <c r="P9" t="n">
-        <v>2132.506921317869</v>
+        <v>1753.102937271255</v>
       </c>
       <c r="Q9" t="n">
-        <v>2132.506921317869</v>
+        <v>2102.947401955239</v>
       </c>
       <c r="R9" t="n">
         <v>2132.506921317869</v>
@@ -4938,34 +4938,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>964.6373549426226</v>
+        <v>1175.351575768505</v>
       </c>
       <c r="C10" t="n">
-        <v>793.5439825043391</v>
+        <v>1004.258203330222</v>
       </c>
       <c r="D10" t="n">
-        <v>634.049337827249</v>
+        <v>844.7635586531319</v>
       </c>
       <c r="E10" t="n">
-        <v>473.1385226955685</v>
+        <v>683.8527435214513</v>
       </c>
       <c r="F10" t="n">
-        <v>308.5073968061598</v>
+        <v>519.2216176320426</v>
       </c>
       <c r="G10" t="n">
-        <v>141.2570057317032</v>
+        <v>351.971226557586</v>
       </c>
       <c r="H10" t="n">
-        <v>86.01772546736866</v>
+        <v>202.3637713630426</v>
       </c>
       <c r="I10" t="n">
-        <v>86.01772546736866</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="J10" t="n">
-        <v>100.1002748725792</v>
+        <v>100.1002748725793</v>
       </c>
       <c r="K10" t="n">
-        <v>254.6526025948172</v>
+        <v>254.6526025948173</v>
       </c>
       <c r="L10" t="n">
         <v>514.5497028748778</v>
@@ -4986,28 +4986,28 @@
         <v>1615.416622088219</v>
       </c>
       <c r="R10" t="n">
-        <v>1615.416622088219</v>
+        <v>1530.143903763618</v>
       </c>
       <c r="S10" t="n">
-        <v>1615.416622088219</v>
+        <v>1530.143903763618</v>
       </c>
       <c r="T10" t="n">
-        <v>1615.416622088219</v>
+        <v>1530.143903763618</v>
       </c>
       <c r="U10" t="n">
-        <v>1615.416622088219</v>
+        <v>1530.143903763618</v>
       </c>
       <c r="V10" t="n">
-        <v>1615.416622088219</v>
+        <v>1530.143903763618</v>
       </c>
       <c r="W10" t="n">
-        <v>1615.416622088219</v>
+        <v>1530.143903763618</v>
       </c>
       <c r="X10" t="n">
-        <v>1377.072759947902</v>
+        <v>1530.143903763618</v>
       </c>
       <c r="Y10" t="n">
-        <v>1152.337061336667</v>
+        <v>1363.05128216255</v>
       </c>
     </row>
     <row r="11">
@@ -5041,10 +5041,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J11" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583772</v>
       </c>
       <c r="K11" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L11" t="n">
         <v>1598.180070079655</v>
@@ -5071,16 +5071,16 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T11" t="n">
-        <v>4304.697325272099</v>
+        <v>4494.590496051882</v>
       </c>
       <c r="U11" t="n">
-        <v>4047.636833531609</v>
+        <v>4494.590496051882</v>
       </c>
       <c r="V11" t="n">
-        <v>3697.79927886809</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W11" t="n">
-        <v>3360.349242692484</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X11" t="n">
         <v>3360.349242692484</v>
@@ -5126,13 +5126,13 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L12" t="n">
-        <v>93.2436976906228</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M12" t="n">
-        <v>936.2207783851894</v>
+        <v>1597.308950304478</v>
       </c>
       <c r="N12" t="n">
-        <v>1809.878870496807</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O12" t="n">
         <v>2139.732893541123</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1182.57754799176</v>
+        <v>417.3694682571215</v>
       </c>
       <c r="C13" t="n">
-        <v>1011.484175553476</v>
+        <v>417.3694682571215</v>
       </c>
       <c r="D13" t="n">
-        <v>851.989530876386</v>
+        <v>257.8748235800315</v>
       </c>
       <c r="E13" t="n">
-        <v>691.0787157447054</v>
+        <v>257.8748235800315</v>
       </c>
       <c r="F13" t="n">
-        <v>526.4475898552967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G13" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H13" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I13" t="n">
         <v>93.2436976906228</v>
@@ -5223,28 +5223,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R13" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S13" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T13" t="n">
-        <v>1420.921410132076</v>
+        <v>1391.672685207403</v>
       </c>
       <c r="U13" t="n">
-        <v>1420.921410132076</v>
+        <v>1108.874537753527</v>
       </c>
       <c r="V13" t="n">
-        <v>1420.921410132076</v>
+        <v>1108.874537753527</v>
       </c>
       <c r="W13" t="n">
-        <v>1420.921410132076</v>
+        <v>829.8048732624012</v>
       </c>
       <c r="X13" t="n">
-        <v>1182.57754799176</v>
+        <v>829.8048732624012</v>
       </c>
       <c r="Y13" t="n">
-        <v>1182.57754799176</v>
+        <v>605.0691746511659</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2549.191389976085</v>
+        <v>2503.174400507722</v>
       </c>
       <c r="C14" t="n">
-        <v>2139.066799289355</v>
+        <v>2093.049809820992</v>
       </c>
       <c r="D14" t="n">
-        <v>1734.602869382415</v>
+        <v>1688.585879914052</v>
       </c>
       <c r="E14" t="n">
-        <v>1320.262653899312</v>
+        <v>1274.245664430949</v>
       </c>
       <c r="F14" t="n">
-        <v>899.2322418529996</v>
+        <v>853.2152523846366</v>
       </c>
       <c r="G14" t="n">
-        <v>490.5039577458317</v>
+        <v>444.4869682774688</v>
       </c>
       <c r="H14" t="n">
         <v>179.5954603735497</v>
@@ -5281,7 +5281,7 @@
         <v>347.4291691583771</v>
       </c>
       <c r="K14" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L14" t="n">
         <v>1598.180070079655</v>
@@ -5308,22 +5308,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T14" t="n">
-        <v>4526.90380932524</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U14" t="n">
-        <v>4269.84331758475</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V14" t="n">
-        <v>4144.752941388363</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W14" t="n">
-        <v>3760.992640523532</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X14" t="n">
-        <v>3360.349242692484</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y14" t="n">
-        <v>2959.412569640574</v>
+        <v>2913.395580172211</v>
       </c>
     </row>
     <row r="15">
@@ -5363,22 +5363,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L15" t="n">
-        <v>754.331869609911</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M15" t="n">
-        <v>754.331869609911</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="N15" t="n">
-        <v>1435.775802995229</v>
+        <v>966.9017898022406</v>
       </c>
       <c r="O15" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P15" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q15" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R15" t="n">
         <v>2139.732893541123</v>
@@ -5412,7 +5412,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1182.57754799176</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="C16" t="n">
         <v>1011.484175553476</v>
@@ -5460,28 +5460,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R16" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S16" t="n">
-        <v>1622.642594311473</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T16" t="n">
-        <v>1622.642594311473</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="U16" t="n">
-        <v>1622.642594311473</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="V16" t="n">
-        <v>1622.642594311473</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="W16" t="n">
-        <v>1622.642594311473</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="X16" t="n">
-        <v>1595.012952997039</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="Y16" t="n">
-        <v>1370.277254385804</v>
+        <v>1111.429368843485</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2549.191389976085</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C17" t="n">
-        <v>2139.066799289355</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D17" t="n">
-        <v>1734.602869382415</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E17" t="n">
-        <v>1320.262653899312</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F17" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G17" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H17" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I17" t="n">
         <v>93.2436976906228</v>
@@ -5530,7 +5530,7 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O17" t="n">
-        <v>3771.310534127131</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P17" t="n">
         <v>4300.467232046283</v>
@@ -5542,25 +5542,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S17" t="n">
-        <v>4526.90380932524</v>
+        <v>4630.445217422097</v>
       </c>
       <c r="T17" t="n">
-        <v>4304.697325272099</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="U17" t="n">
-        <v>4047.636833531609</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V17" t="n">
-        <v>3697.79927886809</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W17" t="n">
-        <v>3350.771460859042</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X17" t="n">
-        <v>2950.128063027995</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y17" t="n">
-        <v>2549.191389976085</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="18">
@@ -5594,19 +5594,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J18" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K18" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L18" t="n">
-        <v>93.2436976906228</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M18" t="n">
-        <v>562.1177108836107</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="N18" t="n">
-        <v>1435.775802995229</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O18" t="n">
         <v>2139.732893541123</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>657.2517797545896</v>
+        <v>674.2521392999383</v>
       </c>
       <c r="C19" t="n">
-        <v>486.1584073163061</v>
+        <v>674.2521392999383</v>
       </c>
       <c r="D19" t="n">
-        <v>486.1584073163061</v>
+        <v>674.2521392999383</v>
       </c>
       <c r="E19" t="n">
-        <v>325.2475921846256</v>
+        <v>513.3413241682579</v>
       </c>
       <c r="F19" t="n">
-        <v>325.2475921846256</v>
+        <v>348.7101982788491</v>
       </c>
       <c r="G19" t="n">
-        <v>325.2475921846256</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="H19" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I19" t="n">
         <v>93.2436976906228</v>
@@ -5703,22 +5703,22 @@
         <v>1622.642594311473</v>
       </c>
       <c r="T19" t="n">
-        <v>1622.642594311473</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U19" t="n">
-        <v>1622.642594311473</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V19" t="n">
-        <v>1348.756849250995</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="W19" t="n">
-        <v>1069.687184759869</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="X19" t="n">
-        <v>1069.687184759869</v>
+        <v>861.9518456939827</v>
       </c>
       <c r="Y19" t="n">
-        <v>844.951486148634</v>
+        <v>861.9518456939827</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2549.191389976085</v>
+        <v>2238.282892603803</v>
       </c>
       <c r="C20" t="n">
-        <v>2139.066799289355</v>
+        <v>1828.158301917073</v>
       </c>
       <c r="D20" t="n">
-        <v>1734.602869382415</v>
+        <v>1423.694372010133</v>
       </c>
       <c r="E20" t="n">
-        <v>1320.262653899312</v>
+        <v>1009.35415652703</v>
       </c>
       <c r="F20" t="n">
-        <v>899.2322418529996</v>
+        <v>588.3237444807176</v>
       </c>
       <c r="G20" t="n">
-        <v>490.5039577458317</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="H20" t="n">
         <v>179.5954603735497</v>
@@ -5782,22 +5782,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T20" t="n">
-        <v>4526.90380932524</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U20" t="n">
-        <v>4494.590496051882</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V20" t="n">
-        <v>4144.752941388363</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W20" t="n">
-        <v>3760.992640523532</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X20" t="n">
-        <v>3360.349242692484</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y20" t="n">
-        <v>2959.412569640574</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="21">
@@ -5840,19 +5840,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="M21" t="n">
-        <v>936.2207783851894</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="N21" t="n">
-        <v>1809.878870496807</v>
+        <v>494.6659264600851</v>
       </c>
       <c r="O21" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P21" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q21" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R21" t="n">
         <v>2139.732893541123</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>916.6240469015422</v>
+        <v>1023.082903314669</v>
       </c>
       <c r="C22" t="n">
-        <v>745.5306744632587</v>
+        <v>851.989530876386</v>
       </c>
       <c r="D22" t="n">
-        <v>586.0360297861687</v>
+        <v>851.989530876386</v>
       </c>
       <c r="E22" t="n">
-        <v>425.1252146544881</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="F22" t="n">
-        <v>260.4940887650794</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G22" t="n">
-        <v>93.2436976906228</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H22" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I22" t="n">
         <v>93.2436976906228</v>
@@ -5934,28 +5934,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R22" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S22" t="n">
-        <v>1537.369875986873</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T22" t="n">
-        <v>1537.369875986873</v>
+        <v>1435.518308319949</v>
       </c>
       <c r="U22" t="n">
-        <v>1537.369875986873</v>
+        <v>1435.518308319949</v>
       </c>
       <c r="V22" t="n">
-        <v>1537.369875986873</v>
+        <v>1435.518308319949</v>
       </c>
       <c r="W22" t="n">
-        <v>1258.300211495747</v>
+        <v>1435.518308319949</v>
       </c>
       <c r="X22" t="n">
-        <v>1258.300211495747</v>
+        <v>1435.518308319949</v>
       </c>
       <c r="Y22" t="n">
-        <v>1033.564512884512</v>
+        <v>1210.782609708714</v>
       </c>
     </row>
     <row r="23">
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2102.237727455812</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C23" t="n">
-        <v>1692.113136769082</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D23" t="n">
-        <v>1287.649206862143</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E23" t="n">
-        <v>873.3089913790395</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="F23" t="n">
-        <v>452.2785793327271</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G23" t="n">
-        <v>179.5954603735497</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H23" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I23" t="n">
-        <v>93.24369769062281</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J23" t="n">
-        <v>347.4291691583776</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K23" t="n">
-        <v>885.588670267417</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L23" t="n">
         <v>1598.180070079655</v>
@@ -6010,31 +6010,31 @@
         <v>4300.467232046283</v>
       </c>
       <c r="Q23" t="n">
-        <v>4621.628238841576</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R23" t="n">
-        <v>4662.184884531141</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S23" t="n">
-        <v>4526.903809325241</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T23" t="n">
-        <v>4304.6973252721</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U23" t="n">
-        <v>4047.63683353161</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V23" t="n">
-        <v>3697.799278868091</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W23" t="n">
-        <v>3314.038978003259</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X23" t="n">
-        <v>2913.395580172212</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y23" t="n">
-        <v>2512.458907120302</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3294.526530567175</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C24" t="n">
-        <v>3160.53145931612</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D24" t="n">
-        <v>3043.634301535513</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E24" t="n">
-        <v>2923.141485527841</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F24" t="n">
-        <v>2814.181605710346</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G24" t="n">
-        <v>2707.191493024684</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H24" t="n">
-        <v>2636.444280060401</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I24" t="n">
-        <v>2615.695688680641</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J24" t="n">
-        <v>2615.695688680641</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K24" t="n">
-        <v>2615.695688680641</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L24" t="n">
-        <v>2615.695688680641</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M24" t="n">
-        <v>3458.672769375207</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="N24" t="n">
-        <v>4332.330861486826</v>
+        <v>494.6659264600851</v>
       </c>
       <c r="O24" t="n">
-        <v>4662.184884531141</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P24" t="n">
-        <v>4662.184884531141</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q24" t="n">
-        <v>4662.184884531141</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R24" t="n">
-        <v>4662.184884531141</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S24" t="n">
-        <v>4554.194874645449</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T24" t="n">
-        <v>4394.853010832458</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U24" t="n">
-        <v>4197.502199970676</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V24" t="n">
-        <v>3983.79067296371</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W24" t="n">
-        <v>3770.557504700038</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X24" t="n">
-        <v>3594.231522838931</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y24" t="n">
-        <v>3434.829563202761</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="25">
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1182.57754799176</v>
+        <v>359.19719878084</v>
       </c>
       <c r="C25" t="n">
-        <v>1011.484175553476</v>
+        <v>359.19719878084</v>
       </c>
       <c r="D25" t="n">
-        <v>851.989530876386</v>
+        <v>359.19719878084</v>
       </c>
       <c r="E25" t="n">
-        <v>691.0787157447054</v>
+        <v>359.19719878084</v>
       </c>
       <c r="F25" t="n">
-        <v>526.4475898552967</v>
+        <v>359.19719878084</v>
       </c>
       <c r="G25" t="n">
         <v>359.19719878084</v>
@@ -6144,7 +6144,7 @@
         <v>209.5897435862967</v>
       </c>
       <c r="I25" t="n">
-        <v>93.24369769062281</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J25" t="n">
         <v>107.3262470958333</v>
@@ -6171,28 +6171,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R25" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S25" t="n">
-        <v>1622.642594311473</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T25" t="n">
-        <v>1622.642594311473</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="U25" t="n">
-        <v>1622.642594311473</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="V25" t="n">
-        <v>1622.642594311473</v>
+        <v>554.7454763291312</v>
       </c>
       <c r="W25" t="n">
-        <v>1622.642594311473</v>
+        <v>359.19719878084</v>
       </c>
       <c r="X25" t="n">
-        <v>1595.012952997039</v>
+        <v>359.19719878084</v>
       </c>
       <c r="Y25" t="n">
-        <v>1370.277254385804</v>
+        <v>359.19719878084</v>
       </c>
     </row>
     <row r="26">
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2139.066799289355</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C26" t="n">
         <v>2139.066799289355</v>
@@ -6226,7 +6226,7 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J26" t="n">
-        <v>347.429169158377</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K26" t="n">
         <v>885.5886702674165</v>
@@ -6262,16 +6262,16 @@
         <v>4047.636833531609</v>
       </c>
       <c r="V26" t="n">
-        <v>3697.79927886809</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="W26" t="n">
-        <v>3314.038978003258</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X26" t="n">
-        <v>2913.395580172211</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y26" t="n">
-        <v>2549.287978953845</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="27">
@@ -6314,13 +6314,13 @@
         <v>93.2436976906228</v>
       </c>
       <c r="M27" t="n">
-        <v>562.1177108836107</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="N27" t="n">
-        <v>1435.775802995229</v>
+        <v>966.9017898022406</v>
       </c>
       <c r="O27" t="n">
-        <v>2139.732893541123</v>
+        <v>1670.858880348135</v>
       </c>
       <c r="P27" t="n">
         <v>2139.732893541123</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1182.57754799176</v>
+        <v>413.9745577685416</v>
       </c>
       <c r="C28" t="n">
-        <v>1011.484175553476</v>
+        <v>359.19719878084</v>
       </c>
       <c r="D28" t="n">
-        <v>851.989530876386</v>
+        <v>359.19719878084</v>
       </c>
       <c r="E28" t="n">
-        <v>691.0787157447054</v>
+        <v>359.19719878084</v>
       </c>
       <c r="F28" t="n">
-        <v>526.4475898552967</v>
+        <v>359.19719878084</v>
       </c>
       <c r="G28" t="n">
         <v>359.19719878084</v>
@@ -6414,22 +6414,22 @@
         <v>1622.642594311473</v>
       </c>
       <c r="T28" t="n">
-        <v>1622.642594311473</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U28" t="n">
-        <v>1622.642594311473</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V28" t="n">
-        <v>1622.642594311473</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W28" t="n">
-        <v>1622.642594311473</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="X28" t="n">
-        <v>1595.012952997039</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="Y28" t="n">
-        <v>1370.277254385804</v>
+        <v>601.6742641625859</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2102.237727455811</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C29" t="n">
-        <v>1692.113136769081</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D29" t="n">
-        <v>1287.649206862142</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E29" t="n">
-        <v>873.3089913790386</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F29" t="n">
-        <v>452.2785793327262</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G29" t="n">
-        <v>179.5954603735497</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H29" t="n">
         <v>179.5954603735497</v>
@@ -6496,19 +6496,19 @@
         <v>4304.697325272099</v>
       </c>
       <c r="U29" t="n">
-        <v>4047.636833531609</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="V29" t="n">
-        <v>3697.79927886809</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W29" t="n">
-        <v>3314.038978003258</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X29" t="n">
-        <v>2913.395580172211</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y29" t="n">
-        <v>2512.458907120301</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="30">
@@ -6551,16 +6551,16 @@
         <v>93.2436976906228</v>
       </c>
       <c r="M30" t="n">
-        <v>562.1177108836107</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="N30" t="n">
-        <v>1435.775802995229</v>
+        <v>524.2254458227151</v>
       </c>
       <c r="O30" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P30" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q30" t="n">
         <v>2139.732893541123</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3463.374005025663</v>
+        <v>798.0226983151792</v>
       </c>
       <c r="C31" t="n">
-        <v>3292.280632587379</v>
+        <v>798.0226983151792</v>
       </c>
       <c r="D31" t="n">
-        <v>3132.785987910289</v>
+        <v>798.0226983151792</v>
       </c>
       <c r="E31" t="n">
-        <v>3132.785987910289</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="F31" t="n">
-        <v>3132.785987910289</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G31" t="n">
-        <v>3132.785987910289</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H31" t="n">
-        <v>3132.785987910289</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I31" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J31" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K31" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L31" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M31" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N31" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O31" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P31" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q31" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R31" t="n">
-        <v>4662.18488453114</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S31" t="n">
-        <v>4662.18488453114</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T31" t="n">
-        <v>4662.18488453114</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="U31" t="n">
-        <v>4662.18488453114</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="V31" t="n">
-        <v>4393.222936662385</v>
+        <v>1077.092362806305</v>
       </c>
       <c r="W31" t="n">
-        <v>4114.153272171259</v>
+        <v>798.0226983151792</v>
       </c>
       <c r="X31" t="n">
-        <v>3875.809410030943</v>
+        <v>798.0226983151792</v>
       </c>
       <c r="Y31" t="n">
-        <v>3651.073711419707</v>
+        <v>798.0226983151792</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2151.931129920876</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C32" t="n">
-        <v>1741.806539234146</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D32" t="n">
-        <v>1337.342609327206</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E32" t="n">
-        <v>923.0023938441032</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="F32" t="n">
-        <v>501.9719817977906</v>
+        <v>866.6187948158295</v>
       </c>
       <c r="G32" t="n">
-        <v>93.2436976906228</v>
+        <v>457.8905107086616</v>
       </c>
       <c r="H32" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I32" t="n">
         <v>93.2436976906228</v>
@@ -6715,7 +6715,7 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O32" t="n">
-        <v>3771.310534127131</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P32" t="n">
         <v>4300.467232046283</v>
@@ -6733,19 +6733,19 @@
         <v>4304.697325272099</v>
       </c>
       <c r="U32" t="n">
-        <v>4097.330235996674</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V32" t="n">
-        <v>3747.492681333154</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W32" t="n">
-        <v>3363.732380468323</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X32" t="n">
-        <v>2963.088982637275</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y32" t="n">
-        <v>2562.152309585365</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="33">
@@ -6782,22 +6782,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K33" t="n">
-        <v>93.2436976906228</v>
+        <v>212.9817385874103</v>
       </c>
       <c r="L33" t="n">
-        <v>754.331869609911</v>
+        <v>874.0699105066985</v>
       </c>
       <c r="M33" t="n">
-        <v>754.331869609911</v>
+        <v>874.0699105066985</v>
       </c>
       <c r="N33" t="n">
-        <v>754.331869609911</v>
+        <v>874.0699105066985</v>
       </c>
       <c r="O33" t="n">
-        <v>1458.288960155805</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P33" t="n">
-        <v>2019.994852644335</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q33" t="n">
         <v>2139.732893541123</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>569.5961886367127</v>
+        <v>733.6225264165333</v>
       </c>
       <c r="C34" t="n">
-        <v>569.5961886367127</v>
+        <v>562.5291539782498</v>
       </c>
       <c r="D34" t="n">
-        <v>410.1015439596227</v>
+        <v>562.5291539782498</v>
       </c>
       <c r="E34" t="n">
-        <v>410.1015439596227</v>
+        <v>425.1252146544881</v>
       </c>
       <c r="F34" t="n">
-        <v>410.1015439596227</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="G34" t="n">
-        <v>242.8511528851661</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H34" t="n">
         <v>93.2436976906228</v>
@@ -6888,22 +6888,22 @@
         <v>1436.250826191383</v>
       </c>
       <c r="T34" t="n">
-        <v>1436.250826191383</v>
+        <v>1196.702087168085</v>
       </c>
       <c r="U34" t="n">
-        <v>1436.250826191383</v>
+        <v>1196.702087168085</v>
       </c>
       <c r="V34" t="n">
-        <v>1311.74541387939</v>
+        <v>1196.702087168085</v>
       </c>
       <c r="W34" t="n">
-        <v>1032.675749388265</v>
+        <v>1196.702087168085</v>
       </c>
       <c r="X34" t="n">
-        <v>794.331887247948</v>
+        <v>958.3582250277686</v>
       </c>
       <c r="Y34" t="n">
-        <v>569.5961886367127</v>
+        <v>733.6225264165333</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2102.237727455811</v>
+        <v>2459.725286714852</v>
       </c>
       <c r="C35" t="n">
-        <v>1692.113136769081</v>
+        <v>2049.600696028122</v>
       </c>
       <c r="D35" t="n">
-        <v>1287.649206862142</v>
+        <v>1645.136766121183</v>
       </c>
       <c r="E35" t="n">
-        <v>873.3089913790386</v>
+        <v>1230.796550638079</v>
       </c>
       <c r="F35" t="n">
-        <v>588.3237444807176</v>
+        <v>809.7661385917668</v>
       </c>
       <c r="G35" t="n">
-        <v>179.5954603735497</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H35" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I35" t="n">
         <v>93.2436976906228</v>
@@ -6964,25 +6964,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S35" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T35" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U35" t="n">
-        <v>4047.636833531609</v>
+        <v>4405.12439279065</v>
       </c>
       <c r="V35" t="n">
-        <v>3697.79927886809</v>
+        <v>4055.286838127131</v>
       </c>
       <c r="W35" t="n">
-        <v>3314.038978003258</v>
+        <v>3671.526537262299</v>
       </c>
       <c r="X35" t="n">
-        <v>2913.395580172211</v>
+        <v>3270.883139431251</v>
       </c>
       <c r="Y35" t="n">
-        <v>2512.458907120301</v>
+        <v>2869.946466379341</v>
       </c>
     </row>
     <row r="36">
@@ -7019,19 +7019,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K36" t="n">
-        <v>93.2436976906228</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L36" t="n">
-        <v>93.2436976906228</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="M36" t="n">
-        <v>562.1177108836107</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="N36" t="n">
-        <v>1435.775802995229</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="O36" t="n">
-        <v>2139.732893541123</v>
+        <v>1914.095216421104</v>
       </c>
       <c r="P36" t="n">
         <v>2139.732893541123</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3970.679815034734</v>
+        <v>850.6960310278942</v>
       </c>
       <c r="C37" t="n">
-        <v>3799.586442596451</v>
+        <v>679.6026585896107</v>
       </c>
       <c r="D37" t="n">
-        <v>3640.09179791936</v>
+        <v>520.1080139125206</v>
       </c>
       <c r="E37" t="n">
-        <v>3479.18098278768</v>
+        <v>359.19719878084</v>
       </c>
       <c r="F37" t="n">
-        <v>3314.549856898271</v>
+        <v>359.19719878084</v>
       </c>
       <c r="G37" t="n">
-        <v>3147.299465823814</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H37" t="n">
-        <v>3132.785987910289</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I37" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J37" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K37" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L37" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M37" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N37" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O37" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P37" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q37" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R37" t="n">
-        <v>4662.18488453114</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S37" t="n">
-        <v>4662.18488453114</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T37" t="n">
-        <v>4662.18488453114</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="U37" t="n">
-        <v>4662.18488453114</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="V37" t="n">
-        <v>4662.18488453114</v>
+        <v>1077.092362806305</v>
       </c>
       <c r="W37" t="n">
-        <v>4383.115220040014</v>
+        <v>850.6960310278942</v>
       </c>
       <c r="X37" t="n">
-        <v>4383.115220040014</v>
+        <v>850.6960310278942</v>
       </c>
       <c r="Y37" t="n">
-        <v>4158.379521428778</v>
+        <v>850.6960310278942</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2462.839627293158</v>
+        <v>2359.298219196301</v>
       </c>
       <c r="C38" t="n">
-        <v>2052.715036606428</v>
+        <v>1949.173628509571</v>
       </c>
       <c r="D38" t="n">
-        <v>1648.251106699488</v>
+        <v>1544.709698602632</v>
       </c>
       <c r="E38" t="n">
-        <v>1233.910891216385</v>
+        <v>1130.369483119528</v>
       </c>
       <c r="F38" t="n">
-        <v>812.8804791700727</v>
+        <v>709.339071073216</v>
       </c>
       <c r="G38" t="n">
         <v>404.1521950629048</v>
@@ -7201,25 +7201,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S38" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T38" t="n">
-        <v>4662.18488453114</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U38" t="n">
-        <v>4408.238733368956</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="V38" t="n">
-        <v>4058.401178705436</v>
+        <v>3954.85977060858</v>
       </c>
       <c r="W38" t="n">
-        <v>3674.640877840605</v>
+        <v>3571.099469743748</v>
       </c>
       <c r="X38" t="n">
-        <v>3273.997480009557</v>
+        <v>3170.456071912701</v>
       </c>
       <c r="Y38" t="n">
-        <v>2873.060806957647</v>
+        <v>2769.519398860791</v>
       </c>
     </row>
     <row r="39">
@@ -7256,19 +7256,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K39" t="n">
-        <v>93.2436976906228</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L39" t="n">
-        <v>754.331869609911</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="M39" t="n">
-        <v>1597.308950304478</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="N39" t="n">
-        <v>1597.308950304478</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="O39" t="n">
-        <v>2139.732893541123</v>
+        <v>1914.095216421104</v>
       </c>
       <c r="P39" t="n">
         <v>2139.732893541123</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>732.3145881425788</v>
+        <v>844.2337844790193</v>
       </c>
       <c r="C40" t="n">
-        <v>561.2212157042953</v>
+        <v>844.2337844790193</v>
       </c>
       <c r="D40" t="n">
-        <v>401.7265710272054</v>
+        <v>684.7391398019292</v>
       </c>
       <c r="E40" t="n">
-        <v>257.8748235800315</v>
+        <v>523.8283246702488</v>
       </c>
       <c r="F40" t="n">
-        <v>93.2436976906228</v>
+        <v>359.19719878084</v>
       </c>
       <c r="G40" t="n">
-        <v>93.2436976906228</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H40" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I40" t="n">
         <v>93.2436976906228</v>
@@ -7356,28 +7356,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R40" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S40" t="n">
-        <v>1622.642594311473</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T40" t="n">
-        <v>1383.093855288175</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="U40" t="n">
-        <v>1383.093855288175</v>
+        <v>1031.933490873064</v>
       </c>
       <c r="V40" t="n">
-        <v>1383.093855288175</v>
+        <v>1031.933490873064</v>
       </c>
       <c r="W40" t="n">
-        <v>1383.093855288175</v>
+        <v>1031.933490873064</v>
       </c>
       <c r="X40" t="n">
-        <v>1144.749993147859</v>
+        <v>1031.933490873064</v>
       </c>
       <c r="Y40" t="n">
-        <v>920.0142945366232</v>
+        <v>1031.933490873064</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2549.191389976085</v>
+        <v>2452.075282119331</v>
       </c>
       <c r="C41" t="n">
-        <v>2139.066799289355</v>
+        <v>2041.950691432601</v>
       </c>
       <c r="D41" t="n">
-        <v>1734.602869382415</v>
+        <v>1637.486761525662</v>
       </c>
       <c r="E41" t="n">
-        <v>1320.262653899312</v>
+        <v>1223.146546042558</v>
       </c>
       <c r="F41" t="n">
-        <v>899.2322418529996</v>
+        <v>802.1161339962459</v>
       </c>
       <c r="G41" t="n">
-        <v>490.5039577458317</v>
+        <v>393.3878498890781</v>
       </c>
       <c r="H41" t="n">
         <v>179.5954603735497</v>
@@ -7414,7 +7414,7 @@
         <v>347.4291691583771</v>
       </c>
       <c r="K41" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L41" t="n">
         <v>1598.180070079655</v>
@@ -7438,25 +7438,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S41" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T41" t="n">
-        <v>4439.978400477999</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U41" t="n">
-        <v>4182.917908737509</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V41" t="n">
-        <v>3833.080354073989</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="W41" t="n">
-        <v>3760.992640523532</v>
+        <v>3663.876532666778</v>
       </c>
       <c r="X41" t="n">
-        <v>3360.349242692484</v>
+        <v>3263.23313483573</v>
       </c>
       <c r="Y41" t="n">
-        <v>2959.412569640574</v>
+        <v>2862.29646178382</v>
       </c>
     </row>
     <row r="42">
@@ -7490,28 +7490,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J42" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K42" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L42" t="n">
-        <v>592.7987223006619</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M42" t="n">
-        <v>1435.775802995229</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N42" t="n">
-        <v>1435.775802995229</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O42" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P42" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q42" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R42" t="n">
         <v>2139.732893541123</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>413.9445253234496</v>
+        <v>692.7936626747511</v>
       </c>
       <c r="C43" t="n">
-        <v>242.8511528851661</v>
+        <v>692.7936626747511</v>
       </c>
       <c r="D43" t="n">
-        <v>242.8511528851661</v>
+        <v>533.2990179976612</v>
       </c>
       <c r="E43" t="n">
-        <v>242.8511528851661</v>
+        <v>425.1252146544881</v>
       </c>
       <c r="F43" t="n">
-        <v>242.8511528851661</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="G43" t="n">
-        <v>242.8511528851661</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H43" t="n">
         <v>93.2436976906228</v>
@@ -7593,28 +7593,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R43" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S43" t="n">
-        <v>1383.063822843083</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T43" t="n">
-        <v>1383.063822843083</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U43" t="n">
-        <v>1100.265675389207</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="V43" t="n">
-        <v>826.3799303287293</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="W43" t="n">
-        <v>826.3799303287293</v>
+        <v>1343.572929820347</v>
       </c>
       <c r="X43" t="n">
-        <v>826.3799303287293</v>
+        <v>1105.229067680031</v>
       </c>
       <c r="Y43" t="n">
-        <v>601.644231717494</v>
+        <v>880.4933690687955</v>
       </c>
     </row>
     <row r="44">
@@ -7630,25 +7630,25 @@
         <v>1692.113136769081</v>
       </c>
       <c r="D44" t="n">
-        <v>1692.113136769081</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E44" t="n">
-        <v>1277.772921285978</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F44" t="n">
-        <v>856.7425092396657</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G44" t="n">
-        <v>448.0142251324978</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H44" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I44" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J44" t="n">
-        <v>347.429169158377</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K44" t="n">
         <v>885.5886702674165</v>
@@ -7727,28 +7727,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J45" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K45" t="n">
-        <v>549.0499539559215</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L45" t="n">
-        <v>1210.13812587521</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M45" t="n">
-        <v>2053.115206569777</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N45" t="n">
-        <v>2053.115206569777</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O45" t="n">
-        <v>2053.115206569777</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P45" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q45" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R45" t="n">
         <v>2139.732893541123</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1126.242409255547</v>
+        <v>745.5306744632587</v>
       </c>
       <c r="C46" t="n">
-        <v>1011.484175553476</v>
+        <v>745.5306744632587</v>
       </c>
       <c r="D46" t="n">
-        <v>851.989530876386</v>
+        <v>586.0360297861687</v>
       </c>
       <c r="E46" t="n">
-        <v>691.0787157447054</v>
+        <v>425.1252146544881</v>
       </c>
       <c r="F46" t="n">
-        <v>526.4475898552967</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="G46" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H46" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I46" t="n">
         <v>93.2436976906228</v>
@@ -7833,25 +7833,25 @@
         <v>1537.369875986873</v>
       </c>
       <c r="S46" t="n">
-        <v>1350.978107866783</v>
+        <v>1396.309941608855</v>
       </c>
       <c r="T46" t="n">
-        <v>1350.978107866783</v>
+        <v>1396.309941608855</v>
       </c>
       <c r="U46" t="n">
-        <v>1350.978107866783</v>
+        <v>1396.309941608855</v>
       </c>
       <c r="V46" t="n">
-        <v>1350.978107866783</v>
+        <v>1396.309941608855</v>
       </c>
       <c r="W46" t="n">
-        <v>1350.978107866783</v>
+        <v>1396.309941608855</v>
       </c>
       <c r="X46" t="n">
-        <v>1350.978107866783</v>
+        <v>1157.966079468538</v>
       </c>
       <c r="Y46" t="n">
-        <v>1126.242409255547</v>
+        <v>933.2303808573031</v>
       </c>
     </row>
   </sheetData>
@@ -7981,13 +7981,13 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K2" t="n">
-        <v>89.13638967321712</v>
+        <v>265.701425083553</v>
       </c>
       <c r="L2" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M2" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N2" t="n">
         <v>614.9758611266449</v>
@@ -7996,7 +7996,7 @@
         <v>615.2533459958087</v>
       </c>
       <c r="P2" t="n">
-        <v>270.21439869122</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q2" t="n">
         <v>414.4388617681339</v>
@@ -8060,19 +8060,19 @@
         <v>246.129700984478</v>
       </c>
       <c r="K3" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L3" t="n">
-        <v>56.11452381084905</v>
+        <v>562.8045877599696</v>
       </c>
       <c r="M3" t="n">
-        <v>532.4592375477437</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N3" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O3" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P3" t="n">
         <v>576.3232053728293</v>
@@ -8081,7 +8081,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R3" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8215,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K5" t="n">
         <v>611.1999600432426</v>
@@ -8224,13 +8224,13 @@
         <v>617.5489684328704</v>
       </c>
       <c r="M5" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N5" t="n">
-        <v>614.9758611266449</v>
+        <v>337.1293820533569</v>
       </c>
       <c r="O5" t="n">
-        <v>594.1598684051008</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P5" t="n">
         <v>93.64936328088416</v>
@@ -8297,7 +8297,7 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K6" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L6" t="n">
         <v>578.1780941808746</v>
@@ -8306,10 +8306,10 @@
         <v>57.56428373841742</v>
       </c>
       <c r="N6" t="n">
-        <v>53.19339339374999</v>
+        <v>170.9271386512359</v>
       </c>
       <c r="O6" t="n">
-        <v>237.1384347635729</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P6" t="n">
         <v>576.3232053728293</v>
@@ -8455,10 +8455,10 @@
         <v>330.076592815888</v>
       </c>
       <c r="K8" t="n">
-        <v>275.0827150970418</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L8" t="n">
-        <v>815.2746908024792</v>
+        <v>782.0306179295947</v>
       </c>
       <c r="M8" t="n">
         <v>877.4504173780091</v>
@@ -8473,7 +8473,7 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q8" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R8" t="n">
         <v>128.2784515920617</v>
@@ -8534,28 +8534,28 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K9" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L9" t="n">
-        <v>213.0023571290847</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M9" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N9" t="n">
-        <v>935.6763147186165</v>
+        <v>458.6703921507823</v>
       </c>
       <c r="O9" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P9" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q9" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R9" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>330.076592815888</v>
+        <v>330.0765928158882</v>
       </c>
       <c r="K11" t="n">
         <v>632.7318453389136</v>
@@ -8713,7 +8713,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R11" t="n">
-        <v>128.2784515920618</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8774,16 +8774,16 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L12" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M12" t="n">
         <v>909.0562844399999</v>
       </c>
       <c r="N12" t="n">
-        <v>935.6763147186165</v>
+        <v>601.0963663600584</v>
       </c>
       <c r="O12" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P12" t="n">
         <v>54.25963500280375</v>
@@ -8929,7 +8929,7 @@
         <v>330.076592815888</v>
       </c>
       <c r="K14" t="n">
-        <v>632.7318453389137</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L14" t="n">
         <v>815.2746908024792</v>
@@ -8950,7 +8950,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R14" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9011,25 +9011,25 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L15" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M15" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N15" t="n">
-        <v>741.5205988334646</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O15" t="n">
-        <v>768.8192472281761</v>
+        <v>291.8133246603422</v>
       </c>
       <c r="P15" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q15" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R15" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9242,22 +9242,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L18" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M18" t="n">
-        <v>531.1743980747688</v>
+        <v>801.788435357892</v>
       </c>
       <c r="N18" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O18" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P18" t="n">
         <v>54.25963500280375</v>
@@ -9409,7 +9409,7 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M20" t="n">
-        <v>877.4504173780091</v>
+        <v>877.4504173780092</v>
       </c>
       <c r="N20" t="n">
         <v>853.701196452193</v>
@@ -9488,22 +9488,22 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M21" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N21" t="n">
-        <v>935.6763147186165</v>
+        <v>458.6703921507826</v>
       </c>
       <c r="O21" t="n">
-        <v>390.9373608629449</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P21" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q21" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R21" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9725,22 +9725,22 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M24" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N24" t="n">
-        <v>935.6763147186165</v>
+        <v>458.6703921507826</v>
       </c>
       <c r="O24" t="n">
-        <v>390.9373608629444</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P24" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q24" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9962,7 +9962,7 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M27" t="n">
-        <v>531.1743980747688</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N27" t="n">
         <v>935.6763147186165</v>
@@ -9971,7 +9971,7 @@
         <v>768.8192472281761</v>
       </c>
       <c r="P27" t="n">
-        <v>54.25963500280375</v>
+        <v>527.8697493391553</v>
       </c>
       <c r="Q27" t="n">
         <v>56.69261850483872</v>
@@ -10199,19 +10199,19 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M30" t="n">
-        <v>531.1743980747688</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N30" t="n">
-        <v>935.6763147186165</v>
+        <v>488.5284925170755</v>
       </c>
       <c r="O30" t="n">
         <v>768.8192472281761</v>
       </c>
       <c r="P30" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q30" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
         <v>59.00019910540541</v>
@@ -10430,7 +10430,7 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K33" t="n">
-        <v>55.82578278461539</v>
+        <v>176.7732988419765</v>
       </c>
       <c r="L33" t="n">
         <v>723.8803540323523</v>
@@ -10448,7 +10448,7 @@
         <v>621.6393243851574</v>
       </c>
       <c r="Q33" t="n">
-        <v>177.6401345621998</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R33" t="n">
         <v>59.00019910540541</v>
@@ -10667,22 +10667,22 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K36" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M36" t="n">
-        <v>531.1743980747688</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N36" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O36" t="n">
         <v>768.8192472281761</v>
       </c>
       <c r="P36" t="n">
-        <v>54.25963500280375</v>
+        <v>282.1764805785802</v>
       </c>
       <c r="Q36" t="n">
         <v>56.69261850483872</v>
@@ -10837,7 +10837,7 @@
         <v>853.701196452193</v>
       </c>
       <c r="O38" t="n">
-        <v>743.321953824879</v>
+        <v>743.3219538248791</v>
       </c>
       <c r="P38" t="n">
         <v>628.1510783507341</v>
@@ -10846,7 +10846,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R38" t="n">
-        <v>128.2784515920618</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10904,22 +10904,22 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K39" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L39" t="n">
         <v>723.8803540323523</v>
       </c>
       <c r="M39" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N39" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O39" t="n">
-        <v>605.6544519663084</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P39" t="n">
-        <v>54.25963500280375</v>
+        <v>282.1764805785802</v>
       </c>
       <c r="Q39" t="n">
         <v>56.69261850483872</v>
@@ -11062,7 +11062,7 @@
         <v>330.076592815888</v>
       </c>
       <c r="K41" t="n">
-        <v>632.7318453389137</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L41" t="n">
         <v>815.2746908024792</v>
@@ -11074,7 +11074,7 @@
         <v>853.701196452193</v>
       </c>
       <c r="O41" t="n">
-        <v>743.321953824879</v>
+        <v>743.3219538248791</v>
       </c>
       <c r="P41" t="n">
         <v>628.1510783507341</v>
@@ -11138,31 +11138,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L42" t="n">
-        <v>560.7155587704844</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M42" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N42" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O42" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P42" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q42" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R42" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11375,16 +11375,16 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>723.8803540323523</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M45" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N45" t="n">
         <v>53.19339339374999</v>
@@ -11393,13 +11393,13 @@
         <v>57.751479</v>
       </c>
       <c r="P45" t="n">
-        <v>141.7522481051737</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q45" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23311,19 +23311,19 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>187.994239071985</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>45.84716204233376</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S13" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T13" t="n">
-        <v>121.8692704368164</v>
+        <v>8.493041620035427</v>
       </c>
       <c r="U13" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23512,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>45.55681957367926</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23548,13 +23548,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>222.4997066824607</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23563,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="15">
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>70.43669735679175</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>279.9701659793371</v>
@@ -23718,10 +23718,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>208.6070786176239</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="17">
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23752,7 +23752,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,19 +23782,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>102.5059940158878</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>36.3651580272259</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23892,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
         <v>157.8996982303191</v>
@@ -23901,16 +23901,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.577887163712</v>
+        <v>60.77743222396583</v>
       </c>
       <c r="H19" t="n">
-        <v>33.61011053025227</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,22 +23943,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="20">
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>134.6847134965115</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23986,7 +23986,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24022,10 +24022,10 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>222.4997066824603</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24126,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>70.05164800696416</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S22" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>237.1532516330649</v>
+        <v>236.4280589403452</v>
       </c>
       <c r="U22" t="n">
         <v>279.9701659793371</v>
@@ -24189,7 +24189,7 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
         <v>235.9604235189134</v>
@@ -24217,16 +24217,16 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>356.9958808389731</v>
       </c>
       <c r="G23" t="n">
-        <v>134.6847134965105</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24363,22 +24363,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>276.2789678462144</v>
+        <v>82.68617307340614</v>
       </c>
       <c r="X25" t="n">
-        <v>208.6070786176239</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="26">
@@ -24445,7 +24445,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24502,16 +24502,16 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>96.14494677818658</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>36.46078111520831</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24603,19 +24603,19 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>115.1528533160761</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24654,19 +24654,19 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T28" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
-        <v>208.6070786176239</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24694,10 +24694,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>134.6847134965114</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24736,10 +24736,10 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>187.9942390719855</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>159.3017069803637</v>
+        <v>53.42716423559462</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>237.1532516330649</v>
@@ -24897,16 +24897,16 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V31" t="n">
-        <v>4.874559219806258</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="32">
@@ -24925,7 +24925,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -24934,10 +24934,10 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>307.7994123985592</v>
+        <v>32.28731256679833</v>
       </c>
       <c r="I32" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24973,7 +24973,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>49.19646844041395</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -25077,22 +25077,22 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
-        <v>159.3017069803637</v>
+        <v>23.27180704983962</v>
       </c>
       <c r="F34" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I34" t="n">
         <v>115.1825854367171</v>
@@ -25128,16 +25128,16 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V34" t="n">
-        <v>147.8865294210004</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25165,16 +25165,16 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>134.6847134965114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>3.083197172522773</v>
       </c>
       <c r="H35" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,10 +25204,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25323,16 +25323,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H37" t="n">
-        <v>133.7430375082081</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>237.1532516330649</v>
@@ -25371,16 +25371,16 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V37" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>52.14659938558773</v>
       </c>
       <c r="X37" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="38">
@@ -25405,7 +25405,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>102.505994015888</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -25441,13 +25441,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>3.083197172522915</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25551,13 +25551,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>16.88847700766166</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H40" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9701659793371</v>
+        <v>201.2692467886199</v>
       </c>
       <c r="V40" t="n">
         <v>271.1468876098733</v>
@@ -25614,10 +25614,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="41">
@@ -25645,7 +25645,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>96.14494677818604</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25687,10 +25687,10 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
-        <v>308.5558614412302</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25788,22 +25788,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>52.20964167062239</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I43" t="n">
         <v>115.1825854367171</v>
@@ -25833,25 +25833,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S43" t="n">
-        <v>31.76485782653742</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25870,7 +25870,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>400.41929060787</v>
+        <v>356.995880838973</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25882,10 +25882,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>42.06483528720054</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>55.77178734884988</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>44.8785154046513</v>
       </c>
       <c r="T46" t="n">
         <v>237.1532516330649</v>
@@ -26088,7 +26088,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>622989.447630616</v>
+        <v>622989.4476306159</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>622989.447630616</v>
+        <v>622989.4476306158</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>622989.447630616</v>
+        <v>622989.4476306159</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>622989.4476306159</v>
+        <v>622989.447630616</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>622989.4476306159</v>
+        <v>622989.447630616</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>622989.447630616</v>
+        <v>622989.4476306158</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>622989.4476306159</v>
+        <v>622989.4476306158</v>
       </c>
     </row>
   </sheetData>
@@ -26316,43 +26316,43 @@
         <v>456070.7004908795</v>
       </c>
       <c r="C2" t="n">
-        <v>456070.7004908794</v>
+        <v>456070.7004908795</v>
       </c>
       <c r="D2" t="n">
-        <v>456070.7004908794</v>
+        <v>456070.7004908793</v>
       </c>
       <c r="E2" t="n">
-        <v>405508.1345491313</v>
+        <v>405508.1345491314</v>
       </c>
       <c r="F2" t="n">
-        <v>405508.1345491313</v>
+        <v>405508.1345491315</v>
       </c>
       <c r="G2" t="n">
-        <v>405508.1345491313</v>
+        <v>405508.1345491314</v>
       </c>
       <c r="H2" t="n">
-        <v>405508.1345491313</v>
+        <v>405508.1345491314</v>
       </c>
       <c r="I2" t="n">
-        <v>405508.1345491311</v>
+        <v>405508.1345491314</v>
       </c>
       <c r="J2" t="n">
-        <v>405508.134549131</v>
+        <v>405508.1345491314</v>
       </c>
       <c r="K2" t="n">
         <v>405508.1345491313</v>
       </c>
       <c r="L2" t="n">
-        <v>405508.1345491313</v>
+        <v>405508.1345491314</v>
       </c>
       <c r="M2" t="n">
         <v>405508.1345491314</v>
       </c>
       <c r="N2" t="n">
-        <v>405508.1345491313</v>
+        <v>405508.1345491314</v>
       </c>
       <c r="O2" t="n">
-        <v>405508.1345491314</v>
+        <v>405508.1345491315</v>
       </c>
       <c r="P2" t="n">
         <v>405508.1345491314</v>
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>171827.4689100681</v>
+        <v>171827.4689100685</v>
       </c>
       <c r="E3" t="n">
-        <v>26968.95418093466</v>
+        <v>26968.95418093424</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>136594.8008058949</v>
+        <v>136594.800805895</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>139999.3108647524</v>
+        <v>139999.3108647527</v>
       </c>
       <c r="M3" t="n">
-        <v>22509.26477404779</v>
+        <v>22509.26477404744</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,7 +26423,7 @@
         <v>164775.2337200961</v>
       </c>
       <c r="D4" t="n">
-        <v>71864.46850972388</v>
+        <v>71864.46850972369</v>
       </c>
       <c r="E4" t="n">
         <v>15465.37373706398</v>
@@ -26475,7 +26475,7 @@
         <v>65369.06507849755</v>
       </c>
       <c r="D5" t="n">
-        <v>99001.07135520017</v>
+        <v>99001.07135520026</v>
       </c>
       <c r="E5" t="n">
         <v>70865.21024487332</v>
@@ -26490,7 +26490,7 @@
         <v>70865.21024487332</v>
       </c>
       <c r="I5" t="n">
-        <v>70865.21024487333</v>
+        <v>70865.21024487332</v>
       </c>
       <c r="J5" t="n">
         <v>70865.21024487332</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>50970.89179917175</v>
+        <v>50970.89179917183</v>
       </c>
       <c r="C6" t="n">
-        <v>225926.4016922858</v>
+        <v>225926.4016922859</v>
       </c>
       <c r="D6" t="n">
-        <v>113377.6917158873</v>
+        <v>113377.6917158869</v>
       </c>
       <c r="E6" t="n">
-        <v>292208.5963862594</v>
+        <v>292028.0157936108</v>
       </c>
       <c r="F6" t="n">
-        <v>319177.5505671941</v>
+        <v>318996.9699745451</v>
       </c>
       <c r="G6" t="n">
-        <v>319177.550567194</v>
+        <v>318996.9699745451</v>
       </c>
       <c r="H6" t="n">
-        <v>319177.550567194</v>
+        <v>318996.969974545</v>
       </c>
       <c r="I6" t="n">
-        <v>319177.5505671938</v>
+        <v>318996.9699745451</v>
       </c>
       <c r="J6" t="n">
-        <v>182582.7497612988</v>
+        <v>182402.16916865</v>
       </c>
       <c r="K6" t="n">
-        <v>319177.550567194</v>
+        <v>318996.9699745449</v>
       </c>
       <c r="L6" t="n">
-        <v>179178.2397024416</v>
+        <v>178997.6591097922</v>
       </c>
       <c r="M6" t="n">
-        <v>296668.2857931464</v>
+        <v>296487.7052004976</v>
       </c>
       <c r="N6" t="n">
-        <v>319177.5505671941</v>
+        <v>318996.9699745451</v>
       </c>
       <c r="O6" t="n">
-        <v>319177.5505671942</v>
+        <v>318996.9699745451</v>
       </c>
       <c r="P6" t="n">
-        <v>319177.5505671941</v>
+        <v>318996.9699745451</v>
       </c>
     </row>
   </sheetData>
@@ -26795,7 +26795,7 @@
         <v>522.0635703700256</v>
       </c>
       <c r="D4" t="n">
-        <v>1075.221568342108</v>
+        <v>1075.22156834211</v>
       </c>
       <c r="E4" t="n">
         <v>1165.546221132785</v>
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>553.1579979720827</v>
+        <v>553.1579979720841</v>
       </c>
       <c r="E4" t="n">
-        <v>90.32465279067667</v>
+        <v>90.32465279067526</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>522.0635703700252</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>553.1579979720827</v>
+        <v>553.1579979720841</v>
       </c>
       <c r="M4" t="n">
-        <v>90.32465279067667</v>
+        <v>90.32465279067526</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>553.1579979720827</v>
+        <v>553.1579979720841</v>
       </c>
       <c r="M4" t="n">
-        <v>90.32465279067667</v>
+        <v>90.32465279067526</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,7 +27384,7 @@
         <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
-        <v>288.6456991383524</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
-        <v>396.9273063213908</v>
+        <v>228.3946048724571</v>
       </c>
     </row>
     <row r="3">
@@ -27551,13 +27551,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
         <v>184.5278504388888</v>
@@ -27599,13 +27599,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2789678462144</v>
+        <v>56.01419322081136</v>
       </c>
       <c r="X4" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>57.06664624006515</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>18.19522188379983</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>145.4111437922969</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>219.9844192126098</v>
@@ -27779,7 +27779,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27788,10 +27788,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27827,22 +27827,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>66.83965265923393</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>235.9604235189134</v>
+        <v>208.6070786176243</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27855,10 +27855,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>393.0160384451233</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27912,13 +27912,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>312.748594874404</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28028,10 +28028,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>93.42449318090675</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>184.5278504388888</v>
@@ -28076,10 +28076,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>57.06664624006515</v>
       </c>
     </row>
     <row r="11">
@@ -34701,13 +34701,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>176.5650354103358</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M2" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>522.0635703700256</v>
@@ -34716,7 +34716,7 @@
         <v>522.0635703700256</v>
       </c>
       <c r="P2" t="n">
-        <v>176.5650354103359</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>324.4050573689818</v>
@@ -34780,19 +34780,19 @@
         <v>194.760462184478</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>506.6900639491206</v>
       </c>
       <c r="M3" t="n">
-        <v>474.8949538093263</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>522.0635703700256</v>
@@ -34801,7 +34801,7 @@
         <v>353.3782471555388</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34935,7 +34935,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K5" t="n">
         <v>522.0635703700256</v>
@@ -34944,13 +34944,13 @@
         <v>522.0635703700256</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N5" t="n">
-        <v>522.0635703700256</v>
+        <v>244.2170912967376</v>
       </c>
       <c r="O5" t="n">
-        <v>500.9700927793177</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -35017,7 +35017,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>522.0635703700256</v>
@@ -35026,10 +35026,10 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>117.7337452574859</v>
       </c>
       <c r="O6" t="n">
-        <v>179.3869557635729</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P6" t="n">
         <v>522.0635703700256</v>
@@ -35175,10 +35175,10 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K8" t="n">
-        <v>185.9463254238247</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L8" t="n">
-        <v>719.7892927396343</v>
+        <v>686.5452198667498</v>
       </c>
       <c r="M8" t="n">
         <v>784.1601929209636</v>
@@ -35193,7 +35193,7 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q8" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>40.9663087773382</v>
@@ -35254,28 +35254,28 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>156.8878333182357</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>882.4829213248665</v>
+        <v>405.4769987570323</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P9" t="n">
         <v>567.3796893823536</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35409,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>256.7530014825801</v>
+        <v>256.7530014825803</v>
       </c>
       <c r="K11" t="n">
         <v>543.5954556656965</v>
@@ -35433,7 +35433,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R11" t="n">
-        <v>40.96630877733828</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35494,16 +35494,16 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M12" t="n">
         <v>851.4920007015825</v>
       </c>
       <c r="N12" t="n">
-        <v>882.4829213248665</v>
+        <v>547.9029729663084</v>
       </c>
       <c r="O12" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35649,7 +35649,7 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K14" t="n">
-        <v>543.5954556656966</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L14" t="n">
         <v>719.7892927396343</v>
@@ -35670,7 +35670,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R14" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35731,25 +35731,25 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>688.3272054397147</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O15" t="n">
-        <v>711.0677682281761</v>
+        <v>234.0618456603422</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35962,22 +35962,22 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M18" t="n">
-        <v>473.6101143363514</v>
+        <v>744.2241516194746</v>
       </c>
       <c r="N18" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36129,7 +36129,7 @@
         <v>719.7892927396343</v>
       </c>
       <c r="M20" t="n">
-        <v>784.1601929209636</v>
+        <v>784.1601929209637</v>
       </c>
       <c r="N20" t="n">
         <v>760.7889056955737</v>
@@ -36208,22 +36208,22 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>882.4829213248665</v>
+        <v>405.4769987570326</v>
       </c>
       <c r="O21" t="n">
-        <v>333.1858818629449</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36445,22 +36445,22 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>882.4829213248665</v>
+        <v>405.4769987570326</v>
       </c>
       <c r="O24" t="n">
-        <v>333.1858818629444</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36682,7 +36682,7 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>473.6101143363514</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>882.4829213248665</v>
@@ -36691,7 +36691,7 @@
         <v>711.0677682281761</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>473.6101143363516</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36919,19 +36919,19 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>473.6101143363514</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>882.4829213248665</v>
+        <v>435.3350991233255</v>
       </c>
       <c r="O30" t="n">
         <v>711.0677682281761</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37150,7 +37150,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>120.9475160573611</v>
       </c>
       <c r="L33" t="n">
         <v>667.7658302215033</v>
@@ -37168,7 +37168,7 @@
         <v>567.3796893823536</v>
       </c>
       <c r="Q33" t="n">
-        <v>120.947516057361</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37387,22 +37387,22 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M36" t="n">
-        <v>473.6101143363514</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>711.0677682281761</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>227.9168455757764</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37557,7 +37557,7 @@
         <v>760.7889056955737</v>
       </c>
       <c r="O38" t="n">
-        <v>650.1321781990958</v>
+        <v>650.132178199096</v>
       </c>
       <c r="P38" t="n">
         <v>534.50171506985</v>
@@ -37566,7 +37566,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R38" t="n">
-        <v>40.96630877733828</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,22 +37624,22 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L39" t="n">
         <v>667.7658302215033</v>
       </c>
       <c r="M39" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>547.9029729663084</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>227.9168455757764</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37782,7 +37782,7 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K41" t="n">
-        <v>543.5954556656966</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L41" t="n">
         <v>719.7892927396343</v>
@@ -37794,7 +37794,7 @@
         <v>760.7889056955737</v>
       </c>
       <c r="O41" t="n">
-        <v>650.1321781990958</v>
+        <v>650.132178199096</v>
       </c>
       <c r="P41" t="n">
         <v>534.50171506985</v>
@@ -37858,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L42" t="n">
-        <v>504.6010349596355</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M42" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38095,16 +38095,16 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K45" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L45" t="n">
-        <v>667.7658302215033</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M45" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -38113,13 +38113,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>87.49261310237</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
